--- a/data/other/Bitburner Augmentation List.xlsx
+++ b/data/other/Bitburner Augmentation List.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/90b86913ab8efd7b/Desktop/bitburner/data/other/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/90b86913ab8efd7b/Desktop/bitburner/bitburner/data/other/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{1682997B-E048-4283-9DBA-B8AC6C9FBBD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F99CB05F-18BD-4FFD-A86C-EBED3FF89BDC}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{1682997B-E048-4283-9DBA-B8AC6C9FBBD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2BB08AD-C9BD-4194-B40D-EDDDCA01A60F}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="51420" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="15960" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Auagments" sheetId="1" r:id="rId1"/>
@@ -510,22 +510,12 @@
   </cellStyles>
   <dxfs count="13">
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="180" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -715,12 +705,22 @@
       </font>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="180" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -735,11 +735,15 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0A318A5B-C7A4-4EDB-BC6E-6FFF98D93E20}" name="Table1" displayName="Table1" ref="A1:BH89" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0A318A5B-C7A4-4EDB-BC6E-6FFF98D93E20}" name="Table1" displayName="Table1" ref="A1:BH89" totalsRowShown="0" headerRowDxfId="12">
   <autoFilter ref="A1:BH89" xr:uid="{0A318A5B-C7A4-4EDB-BC6E-6FFF98D93E20}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BH89">
-    <sortCondition descending="1" ref="I1:I89"/>
+    <sortCondition ref="AG1:AG89"/>
   </sortState>
   <tableColumns count="60">
     <tableColumn id="1" xr3:uid="{4CD68E69-762D-45CB-9BAC-8430ED162C13}" name="name" dataDxfId="11"/>
@@ -1308,1041 +1312,1105 @@
     </row>
     <row r="2" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B2" s="2">
-        <v>1375000000</v>
+        <v>5500000000</v>
       </c>
       <c r="C2" s="2">
-        <v>375000</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="I2" s="2">
-        <v>1.6</v>
-      </c>
-      <c r="O2" s="2">
-        <v>1.6</v>
-      </c>
-      <c r="T2" s="2"/>
-      <c r="AG2" s="2"/>
-      <c r="AI2" s="2">
-        <v>1</v>
-      </c>
-      <c r="AJ2" s="2"/>
-      <c r="AK2" s="2">
-        <v>1</v>
-      </c>
-      <c r="AL2" s="2">
-        <v>1</v>
-      </c>
-      <c r="AM2" s="2">
-        <v>1</v>
-      </c>
-      <c r="AN2" s="2">
-        <v>1</v>
-      </c>
+        <v>1500000</v>
+      </c>
+      <c r="S2" s="2">
+        <v>3</v>
+      </c>
+      <c r="Y2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AG2" s="2">
+        <v>1</v>
+      </c>
+      <c r="BF2" s="2"/>
     </row>
     <row r="3" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>133</v>
+        <v>87</v>
       </c>
       <c r="B3" s="2">
-        <v>2750000000</v>
+        <v>250000000</v>
       </c>
       <c r="C3" s="2">
-        <v>375000</v>
-      </c>
-      <c r="I3" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="O3" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="T3" s="2">
-        <v>1.25</v>
-      </c>
-      <c r="U3" s="2">
-        <v>1.25</v>
-      </c>
-      <c r="Y3" s="2"/>
-      <c r="AI3" s="2">
-        <v>1</v>
-      </c>
-      <c r="BF3" s="2"/>
+        <v>15000</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1.08</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="AG3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="2"/>
+      <c r="AP3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AR3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AS3" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="B4" s="2">
-        <v>1925000000</v>
+        <v>6000000000</v>
       </c>
       <c r="C4" s="2">
-        <v>437500</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="G4" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="H4" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="I4" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="V4" s="2"/>
-      <c r="AL4" s="2">
-        <v>1</v>
-      </c>
-      <c r="BD4" s="2"/>
-      <c r="BE4" s="2"/>
+        <v>625000</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AP4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AR4" s="2"/>
+      <c r="AS4" s="2"/>
     </row>
     <row r="5" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>137</v>
+        <v>89</v>
       </c>
       <c r="B5" s="2">
-        <v>50000000</v>
+        <v>2500000000</v>
       </c>
       <c r="C5" s="2">
-        <v>7500</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="I5" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="J5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="AP5" s="2"/>
-      <c r="AQ5" s="2"/>
-      <c r="AR5" s="2"/>
-      <c r="AT5" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU5" s="2">
-        <v>1</v>
-      </c>
-      <c r="AV5" s="2">
-        <v>1</v>
-      </c>
-      <c r="AW5" s="2">
-        <v>1</v>
-      </c>
-      <c r="AX5" s="2">
-        <v>1</v>
-      </c>
-      <c r="AY5" s="2">
-        <v>1</v>
-      </c>
-      <c r="BC5" s="2">
-        <v>1</v>
-      </c>
-      <c r="BG5" s="2">
-        <v>1</v>
-      </c>
+        <v>250000</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1.07</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1.07</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2">
+        <v>1.03</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>1.03</v>
+      </c>
+      <c r="R5" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AG5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AP5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AR5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AS5" s="2"/>
     </row>
     <row r="6" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>146</v>
+        <v>90</v>
       </c>
       <c r="B6" s="2">
-        <v>4250000000</v>
+        <v>4500000000</v>
       </c>
       <c r="C6" s="2">
-        <v>875000</v>
+        <v>1000000</v>
       </c>
       <c r="D6" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="F6" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="G6" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="H6" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="I6" s="2">
-        <v>1.2</v>
+        <v>1.08</v>
       </c>
       <c r="J6" s="2">
         <v>1.1499999999999999</v>
       </c>
-      <c r="K6" s="2">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="L6" s="2">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="M6" s="2">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="N6" s="2">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="O6" s="2">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="AJ6" s="2"/>
+      <c r="P6" s="2">
+        <v>1.05</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>1.05</v>
+      </c>
+      <c r="R6" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="AG6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="2"/>
+      <c r="AJ6" s="2">
+        <v>1</v>
+      </c>
       <c r="AK6" s="2">
         <v>1</v>
       </c>
-      <c r="AO6" s="2"/>
+      <c r="AL6" s="2"/>
+      <c r="AM6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN6" s="2"/>
+      <c r="AO6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AP6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AR6" s="2"/>
+      <c r="AT6" s="2"/>
+      <c r="AU6" s="2"/>
+      <c r="AV6" s="2"/>
+      <c r="AW6" s="2"/>
+      <c r="AX6" s="2"/>
+      <c r="AY6" s="2"/>
     </row>
     <row r="7" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>144</v>
+        <v>91</v>
       </c>
       <c r="B7" s="2">
-        <v>190000000</v>
+        <v>7500000000</v>
       </c>
       <c r="C7" s="2">
-        <v>25000</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="I7" s="2">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="O7" s="2">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="AG7" s="2"/>
-      <c r="AH7" s="2"/>
-      <c r="AJ7" s="2"/>
-      <c r="AK7" s="2"/>
-      <c r="AP7" s="2"/>
-      <c r="AQ7" s="2"/>
-      <c r="AR7" s="2"/>
-      <c r="AS7" s="2"/>
-      <c r="BC7" s="2">
-        <v>1</v>
-      </c>
+        <v>1750000</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>1.05</v>
+      </c>
+      <c r="R7" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="AD7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AP7" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH7" s="2"/>
     </row>
     <row r="8" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>136</v>
+        <v>92</v>
       </c>
       <c r="B8" s="2">
-        <v>12500000</v>
+        <v>7000000000</v>
       </c>
       <c r="C8" s="2">
-        <v>2500</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="T8" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AD8" s="2"/>
-      <c r="AE8" s="2"/>
-      <c r="AF8" s="2"/>
-      <c r="AI8" s="2">
-        <v>1</v>
-      </c>
-      <c r="AK8" s="2"/>
-      <c r="AL8" s="2">
-        <v>1</v>
-      </c>
-      <c r="AN8" s="2">
-        <v>1</v>
-      </c>
-      <c r="AO8" s="2">
-        <v>1</v>
-      </c>
-      <c r="AP8" s="2"/>
-      <c r="AZ8" s="2">
-        <v>1</v>
-      </c>
-      <c r="BG8" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="R8" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="T8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="AD8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI8" s="2"/>
+      <c r="AK8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL8" s="2"/>
+      <c r="AN8" s="2"/>
+      <c r="AO8" s="2"/>
+      <c r="AP8" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="B9" s="2">
-        <v>180000000</v>
+        <v>4500000000</v>
       </c>
       <c r="C9" s="2">
-        <v>25000</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1.05</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1.05</v>
-      </c>
-      <c r="F9" s="2">
-        <v>1.05</v>
-      </c>
-      <c r="G9" s="2">
-        <v>1.05</v>
-      </c>
+        <v>750000</v>
+      </c>
+      <c r="D9" s="2"/>
       <c r="H9" s="2">
-        <v>1.05</v>
-      </c>
-      <c r="I9" s="2">
-        <v>1.05</v>
-      </c>
-      <c r="J9" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="K9" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L9" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M9" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="N9" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="O9" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="AK9" s="2">
-        <v>1</v>
-      </c>
-      <c r="AQ9" s="2"/>
-      <c r="AR9" s="2"/>
-      <c r="BA9" s="2">
-        <v>1</v>
-      </c>
-      <c r="BB9" s="2">
-        <v>1</v>
-      </c>
-      <c r="BD9" s="2">
-        <v>1</v>
-      </c>
+        <v>2.5</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="AG9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AP9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AS9" s="2"/>
     </row>
     <row r="10" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="B10" s="2">
-        <v>550000000</v>
+        <v>6000000000</v>
       </c>
       <c r="C10" s="2">
-        <v>62500</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="T10" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="U10" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="AD10" s="2"/>
-      <c r="AE10" s="2"/>
-      <c r="AF10" s="2"/>
-      <c r="AI10" s="2">
-        <v>1</v>
-      </c>
-      <c r="AL10" s="2">
-        <v>1</v>
-      </c>
-      <c r="AN10" s="2">
-        <v>1</v>
-      </c>
-      <c r="AP10" s="2"/>
-      <c r="BB10" s="2"/>
-      <c r="BC10" s="2">
-        <v>1</v>
-      </c>
+        <v>1625000</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="AG10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AP10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ10" s="2"/>
+      <c r="AR10" s="2"/>
+      <c r="AS10" s="2"/>
     </row>
     <row r="11" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="B11" s="2">
-        <v>900000000</v>
+        <v>3750000000</v>
       </c>
       <c r="C11" s="2">
-        <v>75000</v>
+        <v>375000</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1.08</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="J11" s="2">
-        <v>1.05</v>
-      </c>
-      <c r="K11" s="2">
-        <v>1.05</v>
-      </c>
-      <c r="L11" s="2">
-        <v>1.05</v>
-      </c>
-      <c r="M11" s="2">
-        <v>1.05</v>
-      </c>
-      <c r="N11" s="2">
-        <v>1.05</v>
-      </c>
-      <c r="O11" s="2">
-        <v>1.05</v>
-      </c>
       <c r="T11" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="X11" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="AD11" s="2"/>
-      <c r="AE11" s="2"/>
-      <c r="AF11" s="2"/>
-      <c r="AI11" s="2">
-        <v>1</v>
-      </c>
-      <c r="AJ11" s="2"/>
-      <c r="AK11" s="2"/>
-      <c r="AL11" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="AG11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AM11" s="2">
         <v>1</v>
       </c>
       <c r="AN11" s="2">
         <v>1</v>
       </c>
-      <c r="AO11" s="2">
-        <v>1</v>
-      </c>
-      <c r="AP11" s="2"/>
-      <c r="AZ11" s="2"/>
+      <c r="AO11" s="2"/>
+      <c r="AV11" s="2"/>
+      <c r="AX11" s="2"/>
+      <c r="AY11" s="2"/>
+      <c r="BA11" s="2"/>
+      <c r="BB11" s="2"/>
+      <c r="BE11" s="2"/>
     </row>
     <row r="12" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="B12" s="2">
-        <v>3000000000</v>
+        <v>4500000000</v>
       </c>
       <c r="C12" s="2">
-        <v>50000</v>
-      </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="Q12" s="2">
-        <v>1.02</v>
-      </c>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-      <c r="AI12" s="2">
-        <v>1</v>
-      </c>
-      <c r="AL12" s="2">
-        <v>1</v>
-      </c>
-      <c r="AN12" s="2">
-        <v>1</v>
-      </c>
-      <c r="AR12" s="2">
-        <v>1</v>
-      </c>
-      <c r="AT12" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU12" s="2">
-        <v>1</v>
-      </c>
-      <c r="AV12" s="2">
-        <v>1</v>
-      </c>
-      <c r="AW12" s="2">
-        <v>1</v>
-      </c>
-      <c r="AX12" s="2">
-        <v>1</v>
-      </c>
-      <c r="AY12" s="2">
-        <v>1</v>
-      </c>
+        <v>500000</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="T12" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="AG12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AM12" s="2"/>
+      <c r="AO12" s="2"/>
+      <c r="AP12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV12" s="2"/>
+      <c r="AX12" s="2"/>
+      <c r="AY12" s="2"/>
+      <c r="BA12" s="2"/>
+      <c r="BB12" s="2"/>
     </row>
     <row r="13" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="B13" s="2">
-        <v>20000000</v>
+        <v>1375000000</v>
       </c>
       <c r="C13" s="2">
-        <v>5000</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="T13" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="AF13" s="2"/>
+        <v>375000</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="I13" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="O13" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="T13" s="2"/>
+      <c r="AG13" s="2"/>
       <c r="AI13" s="2">
         <v>1</v>
       </c>
       <c r="AJ13" s="2"/>
+      <c r="AK13" s="2">
+        <v>1</v>
+      </c>
       <c r="AL13" s="2">
         <v>1</v>
       </c>
-      <c r="AM13" s="2"/>
+      <c r="AM13" s="2">
+        <v>1</v>
+      </c>
       <c r="AN13" s="2">
-        <v>1</v>
-      </c>
-      <c r="AO13" s="2"/>
-      <c r="AU13" s="2">
-        <v>1</v>
-      </c>
-      <c r="AV13" s="2">
-        <v>1</v>
-      </c>
-      <c r="AW13" s="2">
-        <v>1</v>
-      </c>
-      <c r="AY13" s="2">
-        <v>1</v>
-      </c>
-      <c r="BA13" s="2"/>
-      <c r="BB13" s="2"/>
-      <c r="BG13" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>60</v>
+        <v>133</v>
       </c>
       <c r="B14" s="2">
-        <v>17500000</v>
+        <v>2750000000</v>
       </c>
       <c r="C14" s="2">
-        <v>3750</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+        <v>375000</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="O14" s="2">
+        <v>1.5</v>
+      </c>
       <c r="T14" s="2">
-        <v>1.1000000000000001</v>
+        <v>1.25</v>
       </c>
       <c r="U14" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AH14" s="2">
-        <v>1</v>
-      </c>
-      <c r="AJ14" s="2"/>
-      <c r="AK14" s="2">
-        <v>1</v>
-      </c>
-      <c r="AM14" s="2"/>
-      <c r="AN14" s="2">
-        <v>1</v>
-      </c>
-      <c r="AP14" s="2"/>
-      <c r="AZ14" s="2"/>
-      <c r="BA14" s="2"/>
-      <c r="BB14" s="2">
-        <v>1</v>
-      </c>
-      <c r="BG14" s="2">
-        <v>1</v>
-      </c>
+        <v>1.25</v>
+      </c>
+      <c r="Y14" s="2"/>
+      <c r="AI14" s="2">
+        <v>1</v>
+      </c>
+      <c r="BF14" s="2"/>
     </row>
     <row r="15" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>62</v>
+        <v>123</v>
       </c>
       <c r="B15" s="2">
-        <v>3000000000</v>
+        <v>1925000000</v>
       </c>
       <c r="C15" s="2">
-        <v>275000</v>
+        <v>437500</v>
       </c>
       <c r="D15" s="2">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2">
-        <v>1.03</v>
-      </c>
-      <c r="R15" s="2">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="AP15" s="2">
-        <v>1</v>
-      </c>
-      <c r="AQ15" s="2">
-        <v>1</v>
-      </c>
-      <c r="AS15" s="2"/>
-      <c r="BH15" s="2"/>
+        <v>1.2</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="V15" s="2"/>
+      <c r="AL15" s="2">
+        <v>1</v>
+      </c>
+      <c r="BD15" s="2"/>
+      <c r="BE15" s="2"/>
     </row>
     <row r="16" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>63</v>
+        <v>137</v>
       </c>
       <c r="B16" s="2">
-        <v>80000000</v>
+        <v>50000000</v>
       </c>
       <c r="C16" s="2">
-        <v>6250</v>
+        <v>7500</v>
       </c>
       <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2">
-        <v>1.05</v>
-      </c>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2">
-        <v>1.05</v>
-      </c>
-      <c r="Q16" s="2">
-        <v>1.02</v>
-      </c>
-      <c r="AK16" s="2"/>
-      <c r="AR16" s="2">
-        <v>1</v>
-      </c>
-      <c r="AS16" s="2">
-        <v>1</v>
-      </c>
-      <c r="BA16" s="2"/>
-      <c r="BB16" s="2"/>
-      <c r="BD16" s="2"/>
+      <c r="I16" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="J16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="AP16" s="2"/>
+      <c r="AQ16" s="2"/>
+      <c r="AR16" s="2"/>
+      <c r="AT16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AW16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY16" s="2">
+        <v>1</v>
+      </c>
+      <c r="BC16" s="2">
+        <v>1</v>
+      </c>
+      <c r="BG16" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>64</v>
+        <v>146</v>
       </c>
       <c r="B17" s="2">
-        <v>15000000</v>
+        <v>4250000000</v>
       </c>
       <c r="C17" s="2">
-        <v>5000</v>
-      </c>
-      <c r="D17" s="2"/>
+        <v>875000</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1.2</v>
+      </c>
       <c r="G17" s="2">
-        <v>1.1000000000000001</v>
-      </c>
+        <v>1.2</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="J17" s="2">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="L17" s="2">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="M17" s="2">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="N17" s="2">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="O17" s="2">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="AJ17" s="2">
-        <v>1</v>
-      </c>
-      <c r="AM17" s="2">
-        <v>1</v>
-      </c>
-      <c r="AO17" s="2">
-        <v>1</v>
-      </c>
-      <c r="AQ17" s="2"/>
-      <c r="AV17" s="2">
-        <v>1</v>
-      </c>
-      <c r="AX17" s="2">
-        <v>1</v>
-      </c>
-      <c r="AY17" s="2">
-        <v>1</v>
-      </c>
-      <c r="BA17" s="2">
-        <v>1</v>
-      </c>
-      <c r="BB17" s="2">
-        <v>1</v>
-      </c>
-      <c r="BE17" s="2">
-        <v>1</v>
-      </c>
+      <c r="AJ17" s="2"/>
+      <c r="AK17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO17" s="2"/>
     </row>
     <row r="18" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="B18" s="2">
-        <v>42500000</v>
+        <v>190000000</v>
       </c>
       <c r="C18" s="2">
-        <v>8750</v>
+        <v>25000</v>
       </c>
       <c r="D18" s="2"/>
-      <c r="G18" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="J18" s="2"/>
-      <c r="AJ18" s="2">
-        <v>1</v>
-      </c>
-      <c r="AM18" s="2">
-        <v>1</v>
-      </c>
-      <c r="AO18" s="2">
-        <v>1</v>
-      </c>
-      <c r="AV18" s="2">
-        <v>1</v>
-      </c>
-      <c r="AX18" s="2">
-        <v>1</v>
-      </c>
-      <c r="AY18" s="2">
-        <v>1</v>
-      </c>
-      <c r="BA18" s="2">
-        <v>1</v>
-      </c>
-      <c r="BB18" s="2">
+      <c r="I18" s="2">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="O18" s="2">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="AG18" s="2"/>
+      <c r="AH18" s="2"/>
+      <c r="AJ18" s="2"/>
+      <c r="AK18" s="2"/>
+      <c r="AP18" s="2"/>
+      <c r="AQ18" s="2"/>
+      <c r="AR18" s="2"/>
+      <c r="AS18" s="2"/>
+      <c r="BC18" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>66</v>
+        <v>136</v>
       </c>
       <c r="B19" s="2">
-        <v>115000000</v>
+        <v>12500000</v>
       </c>
       <c r="C19" s="2">
-        <v>27500</v>
-      </c>
-      <c r="D19" s="2"/>
+        <v>2500</v>
+      </c>
       <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2">
-        <v>1.3</v>
-      </c>
       <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="AF19" s="2">
-        <v>1</v>
-      </c>
-      <c r="AJ19" s="2">
+      <c r="I19" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="T19" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AD19" s="2"/>
+      <c r="AE19" s="2"/>
+      <c r="AF19" s="2"/>
+      <c r="AI19" s="2">
         <v>1</v>
       </c>
       <c r="AK19" s="2"/>
-      <c r="AM19" s="2">
+      <c r="AL19" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN19" s="2">
         <v>1</v>
       </c>
       <c r="AO19" s="2">
         <v>1</v>
       </c>
-      <c r="BA19" s="2">
-        <v>1</v>
-      </c>
-      <c r="BB19" s="2">
+      <c r="AP19" s="2"/>
+      <c r="AZ19" s="2">
+        <v>1</v>
+      </c>
+      <c r="BG19" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>67</v>
+        <v>131</v>
       </c>
       <c r="B20" s="2">
-        <v>275000000</v>
+        <v>180000000</v>
       </c>
       <c r="C20" s="2">
-        <v>62500</v>
+        <v>25000</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1.05</v>
       </c>
       <c r="E20" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="F20" s="2"/>
+        <v>1.05</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1.05</v>
+      </c>
       <c r="G20" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="V20" s="2"/>
-      <c r="W20" s="2"/>
-      <c r="BB20" s="2"/>
+        <v>1.05</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1.05</v>
+      </c>
+      <c r="I20" s="2">
+        <v>1.05</v>
+      </c>
+      <c r="J20" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K20" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L20" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M20" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N20" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O20" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="AK20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ20" s="2"/>
+      <c r="AR20" s="2"/>
+      <c r="BA20" s="2">
+        <v>1</v>
+      </c>
+      <c r="BB20" s="2">
+        <v>1</v>
+      </c>
       <c r="BD20" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B21" s="2">
-        <v>375000000</v>
+        <v>550000000</v>
       </c>
       <c r="C21" s="2">
-        <v>150000</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="H21" s="2">
-        <v>1.6</v>
-      </c>
-      <c r="J21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="AG21" s="2"/>
-      <c r="AH21" s="2"/>
-      <c r="AJ21" s="2">
-        <v>1</v>
-      </c>
-      <c r="AK21" s="2"/>
-      <c r="AM21" s="2">
-        <v>1</v>
-      </c>
-      <c r="AO21" s="2">
+        <v>62500</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="T21" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="U21" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="AD21" s="2"/>
+      <c r="AE21" s="2"/>
+      <c r="AF21" s="2"/>
+      <c r="AI21" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL21" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN21" s="2">
         <v>1</v>
       </c>
       <c r="AP21" s="2"/>
-      <c r="AQ21" s="2"/>
-      <c r="AZ21" s="2">
-        <v>1</v>
-      </c>
-      <c r="BB21" s="2">
+      <c r="BB21" s="2"/>
+      <c r="BC21" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="B22" s="2">
-        <v>125000000</v>
+        <v>900000000</v>
       </c>
       <c r="C22" s="2">
-        <v>45000</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="F22" s="2">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="G22" s="2">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="H22" s="2">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="AJ22" s="2">
-        <v>1</v>
-      </c>
-      <c r="AM22" s="2">
+        <v>75000</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="J22" s="2">
+        <v>1.05</v>
+      </c>
+      <c r="K22" s="2">
+        <v>1.05</v>
+      </c>
+      <c r="L22" s="2">
+        <v>1.05</v>
+      </c>
+      <c r="M22" s="2">
+        <v>1.05</v>
+      </c>
+      <c r="N22" s="2">
+        <v>1.05</v>
+      </c>
+      <c r="O22" s="2">
+        <v>1.05</v>
+      </c>
+      <c r="T22" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="X22" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="2"/>
+      <c r="AI22" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ22" s="2"/>
+      <c r="AK22" s="2"/>
+      <c r="AL22" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN22" s="2">
         <v>1</v>
       </c>
       <c r="AO22" s="2">
         <v>1</v>
       </c>
-      <c r="AR22" s="2"/>
-      <c r="AZ22" s="2">
-        <v>1</v>
-      </c>
-      <c r="BB22" s="2">
-        <v>1</v>
-      </c>
+      <c r="AP22" s="2"/>
+      <c r="AZ22" s="2"/>
     </row>
     <row r="23" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>70</v>
+        <v>117</v>
       </c>
       <c r="B23" s="2">
-        <v>4375000000</v>
+        <v>3000000000</v>
       </c>
       <c r="C23" s="2">
-        <v>875000</v>
-      </c>
-      <c r="D23" s="2">
-        <v>1.1499999999999999</v>
-      </c>
+        <v>50000</v>
+      </c>
+      <c r="I23" s="2"/>
       <c r="J23" s="2">
-        <v>1.2</v>
-      </c>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="O23" s="2"/>
       <c r="P23" s="2">
         <v>1.1000000000000001</v>
       </c>
       <c r="Q23" s="2">
-        <v>1.05</v>
-      </c>
-      <c r="AE23" s="2"/>
-      <c r="AQ23" s="2">
+        <v>1.02</v>
+      </c>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="AI23" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL23" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN23" s="2">
+        <v>1</v>
+      </c>
+      <c r="AR23" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT23" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU23" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV23" s="2">
+        <v>1</v>
+      </c>
+      <c r="AW23" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX23" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY23" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>71</v>
+        <v>124</v>
       </c>
       <c r="B24" s="2">
-        <v>10000000</v>
+        <v>20000000</v>
       </c>
       <c r="C24" s="2">
-        <v>3750</v>
-      </c>
-      <c r="D24" s="2">
-        <v>1.05</v>
-      </c>
-      <c r="J24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-      <c r="AG24" s="2"/>
-      <c r="AH24" s="2"/>
+        <v>5000</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="T24" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="AF24" s="2"/>
+      <c r="AI24" s="2">
+        <v>1</v>
+      </c>
       <c r="AJ24" s="2"/>
-      <c r="AK24" s="2"/>
-      <c r="AP24" s="2"/>
-      <c r="AQ24" s="2"/>
-      <c r="AR24" s="2"/>
-      <c r="AS24" s="2">
-        <v>1</v>
-      </c>
-      <c r="BH24" s="2">
+      <c r="AL24" s="2">
+        <v>1</v>
+      </c>
+      <c r="AM24" s="2"/>
+      <c r="AN24" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO24" s="2"/>
+      <c r="AU24" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV24" s="2">
+        <v>1</v>
+      </c>
+      <c r="AW24" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY24" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA24" s="2"/>
+      <c r="BB24" s="2"/>
+      <c r="BG24" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="B25" s="2">
-        <v>90000000</v>
+        <v>17500000</v>
       </c>
       <c r="C25" s="2">
-        <v>12500</v>
-      </c>
-      <c r="E25" s="2">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="F25" s="2">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="G25" s="2"/>
-      <c r="V25" s="2">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="W25" s="2">
-        <v>1.1000000000000001</v>
-      </c>
+        <v>3750</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="T25" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="U25" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AH25" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ25" s="2"/>
+      <c r="AK25" s="2">
+        <v>1</v>
+      </c>
+      <c r="AM25" s="2"/>
+      <c r="AN25" s="2">
+        <v>1</v>
+      </c>
+      <c r="AP25" s="2"/>
+      <c r="AZ25" s="2"/>
       <c r="BA25" s="2"/>
       <c r="BB25" s="2">
         <v>1</v>
       </c>
+      <c r="BG25" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B26" s="2">
-        <v>125000000</v>
+        <v>3000000000</v>
       </c>
       <c r="C26" s="2">
-        <v>12500</v>
-      </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="AO26" s="2"/>
-      <c r="AX26" s="2">
-        <v>1</v>
-      </c>
+        <v>275000</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2">
+        <v>1.03</v>
+      </c>
+      <c r="R26" s="2">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="AP26" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ26" s="2">
+        <v>1</v>
+      </c>
+      <c r="AS26" s="2"/>
+      <c r="BH26" s="2"/>
     </row>
     <row r="27" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B27" s="2">
-        <v>23750000</v>
+        <v>80000000</v>
       </c>
       <c r="C27" s="2">
-        <v>7500</v>
+        <v>6250</v>
       </c>
       <c r="D27" s="2"/>
-      <c r="E27" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F27" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="J27" s="2"/>
-      <c r="Q27" s="2"/>
-      <c r="AJ27" s="2">
-        <v>1</v>
-      </c>
-      <c r="AL27" s="2"/>
-      <c r="AM27" s="2">
-        <v>1</v>
-      </c>
-      <c r="AO27" s="2">
-        <v>1</v>
-      </c>
-      <c r="AV27" s="2">
-        <v>1</v>
-      </c>
-      <c r="AX27" s="2">
-        <v>1</v>
-      </c>
-      <c r="AY27" s="2">
-        <v>1</v>
-      </c>
-      <c r="BA27" s="2">
-        <v>1</v>
-      </c>
-      <c r="BB27" s="2">
-        <v>1</v>
-      </c>
-      <c r="BE27" s="2">
-        <v>1</v>
-      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2">
+        <v>1.05</v>
+      </c>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2">
+        <v>1.05</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>1.02</v>
+      </c>
+      <c r="AK27" s="2"/>
+      <c r="AR27" s="2">
+        <v>1</v>
+      </c>
+      <c r="AS27" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA27" s="2"/>
+      <c r="BB27" s="2"/>
+      <c r="BD27" s="2"/>
     </row>
     <row r="28" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B28" s="2">
-        <v>65000000</v>
+        <v>15000000</v>
       </c>
       <c r="C28" s="2">
-        <v>18750</v>
+        <v>5000</v>
       </c>
       <c r="D28" s="2"/>
-      <c r="E28" s="2">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="F28" s="2">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="AF28" s="2"/>
+      <c r="G28" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
       <c r="AJ28" s="2">
         <v>1</v>
       </c>
@@ -2352,6 +2420,7 @@
       <c r="AO28" s="2">
         <v>1</v>
       </c>
+      <c r="AQ28" s="2"/>
       <c r="AV28" s="2">
         <v>1</v>
       </c>
@@ -2365,31 +2434,27 @@
         <v>1</v>
       </c>
       <c r="BB28" s="2">
+        <v>1</v>
+      </c>
+      <c r="BE28" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="B29" s="2">
-        <v>120000000</v>
+        <v>42500000</v>
       </c>
       <c r="C29" s="2">
-        <v>35000</v>
+        <v>8750</v>
       </c>
       <c r="D29" s="2"/>
-      <c r="E29" s="2">
-        <v>1.18</v>
-      </c>
-      <c r="F29" s="2">
-        <v>1.18</v>
-      </c>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
-      <c r="AF29" s="2">
-        <v>1</v>
-      </c>
+      <c r="G29" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="J29" s="2"/>
       <c r="AJ29" s="2">
         <v>1</v>
       </c>
@@ -2399,8 +2464,15 @@
       <c r="AO29" s="2">
         <v>1</v>
       </c>
-      <c r="AP29" s="2"/>
-      <c r="AQ29" s="2"/>
+      <c r="AV29" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX29" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY29" s="2">
+        <v>1</v>
+      </c>
       <c r="BA29" s="2">
         <v>1</v>
       </c>
@@ -2410,889 +2482,845 @@
     </row>
     <row r="30" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B30" s="2">
-        <v>5000000000</v>
+        <v>115000000</v>
       </c>
       <c r="C30" s="2">
-        <v>1125000</v>
-      </c>
-      <c r="E30" s="2">
-        <v>1.35</v>
-      </c>
-      <c r="F30" s="2">
-        <v>1.35</v>
-      </c>
+        <v>27500</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
       <c r="G30" s="2">
-        <v>1.35</v>
-      </c>
-      <c r="H30" s="2">
-        <v>1.35</v>
-      </c>
-      <c r="K30" s="2">
-        <v>1.35</v>
-      </c>
-      <c r="L30" s="2">
-        <v>1.35</v>
-      </c>
-      <c r="M30" s="2">
-        <v>1.35</v>
-      </c>
-      <c r="N30" s="2">
-        <v>1.35</v>
-      </c>
-      <c r="Y30" s="2"/>
-      <c r="Z30" s="2"/>
-      <c r="AH30" s="2">
-        <v>1</v>
-      </c>
-      <c r="BF30" s="2"/>
+        <v>1.3</v>
+      </c>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="AF30" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ30" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK30" s="2"/>
+      <c r="AM30" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO30" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA30" s="2">
+        <v>1</v>
+      </c>
+      <c r="BB30" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B31" s="2">
-        <v>70000000</v>
+        <v>275000000</v>
       </c>
       <c r="C31" s="2">
-        <v>10000</v>
-      </c>
-      <c r="D31" s="2">
-        <v>1.05</v>
-      </c>
-      <c r="Q31" s="2">
-        <v>1.01</v>
-      </c>
-      <c r="T31" s="2"/>
-      <c r="U31" s="2"/>
-      <c r="AZ31" s="2"/>
-      <c r="BA31" s="2"/>
+        <v>62500</v>
+      </c>
+      <c r="E31" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
       <c r="BB31" s="2"/>
-      <c r="BH31" s="2">
+      <c r="BD31" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="B32" s="2">
-        <v>125000000</v>
+        <v>375000000</v>
       </c>
       <c r="C32" s="2">
-        <v>18750</v>
-      </c>
-      <c r="D32" s="2">
-        <v>1.07</v>
-      </c>
-      <c r="P32" s="2">
-        <v>1.05</v>
-      </c>
-      <c r="Q32" s="2">
-        <v>1.02</v>
-      </c>
-      <c r="T32" s="2"/>
-      <c r="U32" s="2"/>
-      <c r="X32" s="2"/>
-      <c r="AS32" s="2">
-        <v>1</v>
-      </c>
-      <c r="BG32" s="2"/>
-      <c r="BH32" s="2">
+        <v>150000</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="H32" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="J32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="AG32" s="2"/>
+      <c r="AH32" s="2"/>
+      <c r="AJ32" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK32" s="2"/>
+      <c r="AM32" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO32" s="2">
+        <v>1</v>
+      </c>
+      <c r="AP32" s="2"/>
+      <c r="AQ32" s="2"/>
+      <c r="AZ32" s="2">
+        <v>1</v>
+      </c>
+      <c r="BB32" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="B33" s="2">
-        <v>550000000</v>
+        <v>125000000</v>
       </c>
       <c r="C33" s="2">
-        <v>50000</v>
-      </c>
-      <c r="D33" s="2">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="Q33" s="2">
-        <v>1.02</v>
-      </c>
-      <c r="R33" s="2">
+        <v>45000</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2">
         <v>1.1499999999999999</v>
       </c>
-      <c r="T33" s="2"/>
-      <c r="U33" s="2"/>
-      <c r="AH33" s="2"/>
-      <c r="AK33" s="2"/>
-      <c r="AN33" s="2"/>
-      <c r="AQ33" s="2">
-        <v>1</v>
-      </c>
-      <c r="AR33" s="2">
-        <v>1</v>
-      </c>
-      <c r="AS33" s="2">
-        <v>1</v>
-      </c>
-      <c r="BB33" s="2"/>
-      <c r="BG33" s="2"/>
+      <c r="F33" s="2">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G33" s="2">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="H33" s="2">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="AJ33" s="2">
+        <v>1</v>
+      </c>
+      <c r="AM33" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO33" s="2">
+        <v>1</v>
+      </c>
+      <c r="AR33" s="2"/>
+      <c r="AZ33" s="2">
+        <v>1</v>
+      </c>
+      <c r="BB33" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="34" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B34" s="2">
-        <v>1100000000</v>
+        <v>4375000000</v>
       </c>
       <c r="C34" s="2">
-        <v>125000</v>
-      </c>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
+        <v>875000</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="J34" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="P34" s="2">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="Q34" s="2">
-        <v>1.02</v>
-      </c>
-      <c r="R34" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="S34" s="2">
-        <v>1.25</v>
-      </c>
+        <v>1.05</v>
+      </c>
+      <c r="AE34" s="2"/>
       <c r="AQ34" s="2">
         <v>1</v>
       </c>
-      <c r="AR34" s="2">
-        <v>1</v>
-      </c>
-      <c r="BA34" s="2"/>
-      <c r="BB34" s="2"/>
-      <c r="BD34" s="2"/>
     </row>
     <row r="35" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="B35" s="2">
-        <v>2250000000</v>
+        <v>10000000</v>
       </c>
       <c r="C35" s="2">
-        <v>250000</v>
+        <v>3750</v>
       </c>
       <c r="D35" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="G35" s="2"/>
-      <c r="R35" s="2">
-        <v>1.25</v>
-      </c>
-      <c r="S35" s="2">
-        <v>1.75</v>
-      </c>
+        <v>1.05</v>
+      </c>
+      <c r="J35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="AG35" s="2"/>
+      <c r="AH35" s="2"/>
       <c r="AJ35" s="2"/>
-      <c r="AM35" s="2"/>
-      <c r="AO35" s="2"/>
-      <c r="AQ35" s="2">
-        <v>1</v>
-      </c>
-      <c r="AV35" s="2"/>
-      <c r="AX35" s="2"/>
-      <c r="AY35" s="2"/>
-      <c r="BA35" s="2"/>
-      <c r="BB35" s="2"/>
-      <c r="BE35" s="2"/>
+      <c r="AK35" s="2"/>
+      <c r="AP35" s="2"/>
+      <c r="AQ35" s="2"/>
+      <c r="AR35" s="2"/>
+      <c r="AS35" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH35" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="36" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="B36" s="2">
-        <v>225000000</v>
+        <v>90000000</v>
       </c>
       <c r="C36" s="2">
-        <v>45000</v>
-      </c>
-      <c r="D36" s="2">
-        <v>1.08</v>
-      </c>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
+        <v>12500</v>
+      </c>
+      <c r="E36" s="2">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F36" s="2">
+        <v>1.1499999999999999</v>
+      </c>
       <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="J36" s="2">
+      <c r="V36" s="2">
         <v>1.1499999999999999</v>
       </c>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="AH36" s="2"/>
-      <c r="AS36" s="2">
+      <c r="W36" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="BA36" s="2"/>
+      <c r="BB36" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="B37" s="2">
-        <v>450000000</v>
+        <v>125000000</v>
       </c>
       <c r="C37" s="2">
-        <v>112500</v>
-      </c>
-      <c r="J37" s="2"/>
-      <c r="R37" s="2">
-        <v>1.25</v>
-      </c>
-      <c r="AQ37" s="2">
-        <v>1</v>
-      </c>
-      <c r="AR37" s="2">
-        <v>1</v>
-      </c>
-      <c r="AS37" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU37" s="2">
-        <v>1</v>
-      </c>
-      <c r="AW37" s="2">
+        <v>12500</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="AO37" s="2"/>
+      <c r="AX37" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="B38" s="2">
-        <v>50000000</v>
+        <v>23750000</v>
       </c>
       <c r="C38" s="2">
-        <v>15000</v>
+        <v>7500</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2">
+        <v>1.1000000000000001</v>
       </c>
       <c r="F38" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="G38" s="2"/>
-      <c r="V38" s="2"/>
-      <c r="W38" s="2"/>
-      <c r="AV38" s="2"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="AJ38" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL38" s="2"/>
+      <c r="AM38" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO38" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV38" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX38" s="2">
+        <v>1</v>
+      </c>
       <c r="AY38" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA38" s="2">
+        <v>1</v>
+      </c>
+      <c r="BB38" s="2">
+        <v>1</v>
+      </c>
+      <c r="BE38" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="B39" s="2">
-        <v>5500000000</v>
+        <v>65000000</v>
       </c>
       <c r="C39" s="2">
-        <v>1500000</v>
-      </c>
-      <c r="S39" s="2">
-        <v>3</v>
-      </c>
-      <c r="Y39" s="2"/>
-      <c r="AC39" s="2"/>
-      <c r="AG39" s="2">
-        <v>1</v>
-      </c>
-      <c r="BF39" s="2"/>
+        <v>18750</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="F39" s="2">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="AF39" s="2"/>
+      <c r="AJ39" s="2">
+        <v>1</v>
+      </c>
+      <c r="AM39" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO39" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV39" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX39" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY39" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA39" s="2">
+        <v>1</v>
+      </c>
+      <c r="BB39" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="40" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="B40" s="2">
-        <v>250000000</v>
+        <v>120000000</v>
       </c>
       <c r="C40" s="2">
-        <v>15000</v>
-      </c>
-      <c r="D40" s="2">
-        <v>1.08</v>
-      </c>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-      <c r="AG40" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH40" s="2">
+        <v>35000</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2">
+        <v>1.18</v>
+      </c>
+      <c r="F40" s="2">
+        <v>1.18</v>
+      </c>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="AF40" s="2">
         <v>1</v>
       </c>
       <c r="AJ40" s="2">
         <v>1</v>
       </c>
-      <c r="AK40" s="2">
-        <v>1</v>
-      </c>
-      <c r="AN40" s="2"/>
-      <c r="AP40" s="2">
-        <v>1</v>
-      </c>
-      <c r="AQ40" s="2">
-        <v>1</v>
-      </c>
-      <c r="AR40" s="2">
-        <v>1</v>
-      </c>
-      <c r="AS40" s="2">
+      <c r="AM40" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO40" s="2">
+        <v>1</v>
+      </c>
+      <c r="AP40" s="2"/>
+      <c r="AQ40" s="2"/>
+      <c r="BA40" s="2">
+        <v>1</v>
+      </c>
+      <c r="BB40" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="B41" s="2">
-        <v>6000000000</v>
+        <v>5000000000</v>
       </c>
       <c r="C41" s="2">
-        <v>625000</v>
-      </c>
-      <c r="J41" s="2"/>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AD41" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE41" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF41" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG41" s="2">
-        <v>1</v>
-      </c>
+        <v>1125000</v>
+      </c>
+      <c r="E41" s="2">
+        <v>1.35</v>
+      </c>
+      <c r="F41" s="2">
+        <v>1.35</v>
+      </c>
+      <c r="G41" s="2">
+        <v>1.35</v>
+      </c>
+      <c r="H41" s="2">
+        <v>1.35</v>
+      </c>
+      <c r="K41" s="2">
+        <v>1.35</v>
+      </c>
+      <c r="L41" s="2">
+        <v>1.35</v>
+      </c>
+      <c r="M41" s="2">
+        <v>1.35</v>
+      </c>
+      <c r="N41" s="2">
+        <v>1.35</v>
+      </c>
+      <c r="Y41" s="2"/>
+      <c r="Z41" s="2"/>
       <c r="AH41" s="2">
         <v>1</v>
       </c>
-      <c r="AK41" s="2">
-        <v>1</v>
-      </c>
-      <c r="AP41" s="2">
-        <v>1</v>
-      </c>
-      <c r="AR41" s="2"/>
-      <c r="AS41" s="2"/>
+      <c r="BF41" s="2"/>
     </row>
     <row r="42" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="B42" s="2">
-        <v>2500000000</v>
+        <v>70000000</v>
       </c>
       <c r="C42" s="2">
-        <v>250000</v>
+        <v>10000</v>
       </c>
       <c r="D42" s="2">
-        <v>1.07</v>
-      </c>
-      <c r="J42" s="2">
-        <v>1.07</v>
-      </c>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="Q42" s="2">
-        <v>1.03</v>
-      </c>
-      <c r="R42" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AG42" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH42" s="2">
-        <v>1</v>
-      </c>
-      <c r="AJ42" s="2">
-        <v>1</v>
-      </c>
-      <c r="AK42" s="2">
-        <v>1</v>
-      </c>
-      <c r="AP42" s="2">
-        <v>1</v>
-      </c>
-      <c r="AQ42" s="2">
-        <v>1</v>
-      </c>
-      <c r="AR42" s="2">
-        <v>1</v>
-      </c>
-      <c r="AS42" s="2"/>
+        <v>1.01</v>
+      </c>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="AZ42" s="2"/>
+      <c r="BA42" s="2"/>
+      <c r="BB42" s="2"/>
+      <c r="BH42" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="43" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="B43" s="2">
-        <v>4500000000</v>
+        <v>125000000</v>
       </c>
       <c r="C43" s="2">
-        <v>1000000</v>
+        <v>18750</v>
       </c>
       <c r="D43" s="2">
-        <v>1.08</v>
-      </c>
-      <c r="J43" s="2">
-        <v>1.1499999999999999</v>
+        <v>1.07</v>
       </c>
       <c r="P43" s="2">
         <v>1.05</v>
       </c>
       <c r="Q43" s="2">
-        <v>1.05</v>
-      </c>
-      <c r="R43" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="AG43" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH43" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI43" s="2"/>
-      <c r="AJ43" s="2">
-        <v>1</v>
-      </c>
-      <c r="AK43" s="2">
-        <v>1</v>
-      </c>
-      <c r="AL43" s="2"/>
-      <c r="AM43" s="2">
-        <v>1</v>
-      </c>
-      <c r="AN43" s="2"/>
-      <c r="AO43" s="2">
-        <v>1</v>
-      </c>
-      <c r="AP43" s="2">
-        <v>1</v>
-      </c>
-      <c r="AQ43" s="2">
-        <v>1</v>
-      </c>
-      <c r="AR43" s="2"/>
-      <c r="AT43" s="2"/>
-      <c r="AU43" s="2"/>
-      <c r="AV43" s="2"/>
-      <c r="AW43" s="2"/>
-      <c r="AX43" s="2"/>
-      <c r="AY43" s="2"/>
+        <v>1.02</v>
+      </c>
+      <c r="T43" s="2"/>
+      <c r="U43" s="2"/>
+      <c r="X43" s="2"/>
+      <c r="AS43" s="2">
+        <v>1</v>
+      </c>
+      <c r="BG43" s="2"/>
+      <c r="BH43" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="44" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="B44" s="2">
-        <v>7500000000</v>
+        <v>550000000</v>
       </c>
       <c r="C44" s="2">
-        <v>1750000</v>
+        <v>50000</v>
       </c>
       <c r="D44" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="J44" s="2">
-        <v>1.25</v>
-      </c>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
-      <c r="P44" s="2">
-        <v>1.1000000000000001</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="Q44" s="2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="R44" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="AD44" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE44" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF44" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG44" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH44" s="2">
-        <v>1</v>
-      </c>
-      <c r="AK44" s="2">
-        <v>1</v>
-      </c>
-      <c r="AP44" s="2">
-        <v>1</v>
-      </c>
-      <c r="BH44" s="2"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="T44" s="2"/>
+      <c r="U44" s="2"/>
+      <c r="AH44" s="2"/>
+      <c r="AK44" s="2"/>
+      <c r="AN44" s="2"/>
+      <c r="AQ44" s="2">
+        <v>1</v>
+      </c>
+      <c r="AR44" s="2">
+        <v>1</v>
+      </c>
+      <c r="AS44" s="2">
+        <v>1</v>
+      </c>
+      <c r="BB44" s="2"/>
+      <c r="BG44" s="2"/>
     </row>
     <row r="45" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="B45" s="2">
-        <v>7000000000</v>
+        <v>1100000000</v>
       </c>
       <c r="C45" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
-      <c r="P45" s="2">
+        <v>125000</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="Q45" s="2">
+        <v>1.02</v>
+      </c>
+      <c r="R45" s="2">
         <v>1.2</v>
       </c>
-      <c r="R45" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="T45" s="2"/>
-      <c r="X45" s="2"/>
-      <c r="AD45" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE45" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF45" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG45" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH45" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI45" s="2"/>
-      <c r="AK45" s="2">
-        <v>1</v>
-      </c>
-      <c r="AL45" s="2"/>
-      <c r="AN45" s="2"/>
-      <c r="AO45" s="2"/>
-      <c r="AP45" s="2">
-        <v>1</v>
-      </c>
+      <c r="S45" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="AQ45" s="2">
+        <v>1</v>
+      </c>
+      <c r="AR45" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA45" s="2"/>
+      <c r="BB45" s="2"/>
+      <c r="BD45" s="2"/>
     </row>
     <row r="46" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="B46" s="2">
-        <v>1375000000</v>
+        <v>2250000000</v>
       </c>
       <c r="C46" s="2">
-        <v>100000</v>
+        <v>250000</v>
       </c>
       <c r="D46" s="2">
-        <v>1.08</v>
-      </c>
-      <c r="J46" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="Q46" s="2">
-        <v>1.03</v>
-      </c>
-      <c r="AP46" s="2">
-        <v>1</v>
-      </c>
+        <v>1.3</v>
+      </c>
+      <c r="G46" s="2"/>
+      <c r="R46" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="S46" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="AJ46" s="2"/>
+      <c r="AM46" s="2"/>
+      <c r="AO46" s="2"/>
       <c r="AQ46" s="2">
         <v>1</v>
       </c>
-      <c r="AR46" s="2">
-        <v>1</v>
-      </c>
-      <c r="AS46" s="2"/>
-      <c r="BH46" s="2"/>
+      <c r="AV46" s="2"/>
+      <c r="AX46" s="2"/>
+      <c r="AY46" s="2"/>
+      <c r="BA46" s="2"/>
+      <c r="BB46" s="2"/>
+      <c r="BE46" s="2"/>
     </row>
     <row r="47" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="B47" s="2">
-        <v>3750000000</v>
+        <v>225000000</v>
       </c>
       <c r="C47" s="2">
-        <v>500000</v>
-      </c>
-      <c r="E47" s="2">
-        <v>1.85</v>
-      </c>
+        <v>45000</v>
+      </c>
+      <c r="D47" s="2">
+        <v>1.08</v>
+      </c>
+      <c r="E47" s="2"/>
       <c r="F47" s="2"/>
-      <c r="G47" s="2">
-        <v>1.85</v>
-      </c>
-      <c r="V47" s="2"/>
-      <c r="W47" s="2"/>
-      <c r="AZ47" s="2"/>
-      <c r="BA47" s="2">
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="J47" s="2">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="AH47" s="2"/>
+      <c r="AS47" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="B48" s="2">
-        <v>4500000000</v>
+        <v>450000000</v>
       </c>
       <c r="C48" s="2">
-        <v>750000</v>
-      </c>
-      <c r="D48" s="2"/>
-      <c r="H48" s="2">
-        <v>2.5</v>
+        <v>112500</v>
       </c>
       <c r="J48" s="2"/>
-      <c r="AG48" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH48" s="2">
-        <v>1</v>
-      </c>
-      <c r="AP48" s="2">
-        <v>1</v>
-      </c>
-      <c r="AS48" s="2"/>
+      <c r="R48" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="AQ48" s="2">
+        <v>1</v>
+      </c>
+      <c r="AR48" s="2">
+        <v>1</v>
+      </c>
+      <c r="AS48" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU48" s="2">
+        <v>1</v>
+      </c>
+      <c r="AW48" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="49" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="B49" s="2">
-        <v>6000000000</v>
+        <v>50000000</v>
       </c>
       <c r="C49" s="2">
-        <v>1625000</v>
-      </c>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2">
-        <v>1.6</v>
+        <v>15000</v>
       </c>
       <c r="F49" s="2">
-        <v>1.6</v>
-      </c>
-      <c r="G49" s="2">
-        <v>1.6</v>
-      </c>
-      <c r="H49" s="2">
-        <v>1.6</v>
-      </c>
-      <c r="Q49" s="2"/>
-      <c r="R49" s="2"/>
-      <c r="AG49" s="2">
-        <v>1</v>
-      </c>
-      <c r="AP49" s="2">
-        <v>1</v>
-      </c>
-      <c r="AQ49" s="2"/>
-      <c r="AR49" s="2"/>
-      <c r="AS49" s="2"/>
+        <v>1.4</v>
+      </c>
+      <c r="G49" s="2"/>
+      <c r="V49" s="2"/>
+      <c r="W49" s="2"/>
+      <c r="AV49" s="2"/>
+      <c r="AY49" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="50" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B50" s="2">
-        <v>4250000000</v>
+        <v>1375000000</v>
       </c>
       <c r="C50" s="2">
-        <v>1125000</v>
-      </c>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2">
-        <v>1.7</v>
-      </c>
-      <c r="F50" s="2">
-        <v>1.7</v>
-      </c>
-      <c r="Q50" s="2"/>
-      <c r="T50" s="2"/>
-      <c r="AF50" s="2">
-        <v>1</v>
+        <v>100000</v>
+      </c>
+      <c r="D50" s="2">
+        <v>1.08</v>
+      </c>
+      <c r="J50" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q50" s="2">
+        <v>1.03</v>
       </c>
       <c r="AP50" s="2">
         <v>1</v>
       </c>
+      <c r="AQ50" s="2">
+        <v>1</v>
+      </c>
+      <c r="AR50" s="2">
+        <v>1</v>
+      </c>
+      <c r="AS50" s="2"/>
+      <c r="BH50" s="2"/>
     </row>
     <row r="51" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B51" s="2">
-        <v>2500000000</v>
+        <v>3750000000</v>
       </c>
       <c r="C51" s="2">
-        <v>225000</v>
+        <v>500000</v>
       </c>
       <c r="E51" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="F51" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="V51" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="W51" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AY51" s="2"/>
-      <c r="AZ51" s="2">
+        <v>1.85</v>
+      </c>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2">
+        <v>1.85</v>
+      </c>
+      <c r="V51" s="2"/>
+      <c r="W51" s="2"/>
+      <c r="AZ51" s="2"/>
+      <c r="BA51" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B52" s="2">
-        <v>5500000</v>
+        <v>4250000000</v>
       </c>
       <c r="C52" s="2">
-        <v>2500</v>
-      </c>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="Y52" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AC52" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="AJ52" s="2"/>
-      <c r="AM52" s="2"/>
-      <c r="AO52" s="2"/>
-      <c r="AZ52" s="2"/>
-      <c r="BB52" s="2"/>
-      <c r="BF52" s="2">
+        <v>1125000</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="F52" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="Q52" s="2"/>
+      <c r="T52" s="2"/>
+      <c r="AF52" s="2">
+        <v>1</v>
+      </c>
+      <c r="AP52" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B53" s="2">
-        <v>60000000</v>
+        <v>2500000000</v>
       </c>
       <c r="C53" s="2">
-        <v>12500</v>
-      </c>
-      <c r="H53" s="2"/>
-      <c r="Y53" s="2">
-        <v>1.45</v>
-      </c>
-      <c r="AG53" s="2"/>
-      <c r="AH53" s="2"/>
-      <c r="AP53" s="2"/>
-      <c r="BF53" s="2">
+        <v>225000</v>
+      </c>
+      <c r="E53" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="F53" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="V53" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="W53" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AY53" s="2"/>
+      <c r="AZ53" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B54" s="2">
-        <v>11000000</v>
+        <v>5500000</v>
       </c>
       <c r="C54" s="2">
-        <v>3750</v>
+        <v>2500</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
       <c r="Y54" s="2">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="Z54" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AC54" s="2">
         <v>0.85</v>
       </c>
-      <c r="AF54" s="2"/>
-      <c r="AP54" s="2"/>
+      <c r="AJ54" s="2"/>
+      <c r="AM54" s="2"/>
+      <c r="AO54" s="2"/>
+      <c r="AZ54" s="2"/>
+      <c r="BB54" s="2"/>
       <c r="BF54" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B55" s="2">
-        <v>40000000</v>
+        <v>60000000</v>
       </c>
       <c r="C55" s="2">
-        <v>7500</v>
+        <v>12500</v>
       </c>
       <c r="H55" s="2"/>
       <c r="Y55" s="2">
-        <v>1.25</v>
-      </c>
-      <c r="AJ55" s="2"/>
-      <c r="AM55" s="2"/>
-      <c r="AO55" s="2"/>
-      <c r="AZ55" s="2"/>
-      <c r="BB55" s="2"/>
+        <v>1.45</v>
+      </c>
+      <c r="AG55" s="2"/>
+      <c r="AH55" s="2"/>
+      <c r="AP55" s="2"/>
       <c r="BF55" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B56" s="2">
-        <v>4500000</v>
+        <v>11000000</v>
       </c>
       <c r="C56" s="2">
-        <v>1875</v>
+        <v>3750</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
       <c r="Y56" s="2">
-        <v>1.1000000000000001</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="Z56" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="AG56" s="2"/>
+        <v>0.85</v>
+      </c>
+      <c r="AF56" s="2"/>
       <c r="AP56" s="2"/>
       <c r="BF56" s="2">
         <v>1</v>
@@ -3300,637 +3328,613 @@
     </row>
     <row r="57" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B57" s="2">
-        <v>45000000</v>
+        <v>40000000</v>
       </c>
       <c r="C57" s="2">
-        <v>10000</v>
-      </c>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2">
-        <v>1.08</v>
-      </c>
-      <c r="F57" s="2">
-        <v>1.08</v>
-      </c>
-      <c r="G57" s="2">
-        <v>1.08</v>
-      </c>
-      <c r="H57" s="2">
-        <v>1.08</v>
-      </c>
-      <c r="P57" s="2"/>
-      <c r="Q57" s="2"/>
-      <c r="R57" s="2"/>
-      <c r="AD57" s="2"/>
-      <c r="BA57" s="2">
-        <v>1</v>
-      </c>
-      <c r="BB57" s="2">
-        <v>1</v>
-      </c>
-      <c r="BD57" s="2">
+        <v>7500</v>
+      </c>
+      <c r="H57" s="2"/>
+      <c r="Y57" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="AJ57" s="2"/>
+      <c r="AM57" s="2"/>
+      <c r="AO57" s="2"/>
+      <c r="AZ57" s="2"/>
+      <c r="BB57" s="2"/>
+      <c r="BF57" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
+      </c>
+      <c r="B58" s="2">
+        <v>4500000</v>
+      </c>
+      <c r="C58" s="2">
+        <v>1875</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="Y58" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Z58" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="AG58" s="2"/>
+      <c r="AP58" s="2"/>
+      <c r="BF58" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B59" s="2">
-        <v>2750000000</v>
+        <v>45000000</v>
       </c>
       <c r="C59" s="2">
-        <v>150000</v>
+        <v>10000</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2">
+        <v>1.08</v>
+      </c>
+      <c r="F59" s="2">
+        <v>1.08</v>
       </c>
       <c r="G59" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="Q59" s="2">
-        <v>1.03</v>
-      </c>
-      <c r="R59" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AJ59" s="2">
-        <v>1</v>
-      </c>
-      <c r="AO59" s="2">
-        <v>1</v>
-      </c>
-      <c r="BH59" s="2"/>
+        <v>1.08</v>
+      </c>
+      <c r="H59" s="2">
+        <v>1.08</v>
+      </c>
+      <c r="P59" s="2"/>
+      <c r="Q59" s="2"/>
+      <c r="R59" s="2"/>
+      <c r="AD59" s="2"/>
+      <c r="BA59" s="2">
+        <v>1</v>
+      </c>
+      <c r="BB59" s="2">
+        <v>1</v>
+      </c>
+      <c r="BD59" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="60" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B60" s="2">
-        <v>30000000</v>
-      </c>
-      <c r="C60" s="2">
-        <v>7500</v>
-      </c>
-      <c r="G60" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="K60" s="2"/>
-      <c r="L60" s="2"/>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
-      <c r="V60" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="W60" s="2">
-        <v>1.25</v>
-      </c>
-      <c r="AV60" s="2">
-        <v>1</v>
-      </c>
-      <c r="AW60" s="2"/>
+        <v>107</v>
+      </c>
     </row>
     <row r="61" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B61" s="2">
-        <v>5000000</v>
+        <v>2750000000</v>
       </c>
       <c r="C61" s="2">
-        <v>1500</v>
-      </c>
-      <c r="H61" s="2">
-        <v>1.05</v>
-      </c>
-      <c r="R61" s="2"/>
-      <c r="V61" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AQ61" s="2"/>
-      <c r="AR61" s="2"/>
-      <c r="AS61" s="2"/>
-      <c r="AU61" s="2"/>
-      <c r="AW61" s="2"/>
-      <c r="BD61" s="2">
-        <v>1</v>
-      </c>
-      <c r="BE61" s="2">
-        <v>1</v>
-      </c>
+        <v>150000</v>
+      </c>
+      <c r="G61" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="Q61" s="2">
+        <v>1.03</v>
+      </c>
+      <c r="R61" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AJ61" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO61" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH61" s="2"/>
     </row>
     <row r="62" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B62" s="2">
         <v>30000000</v>
       </c>
       <c r="C62" s="2">
-        <v>5000</v>
-      </c>
-      <c r="F62" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H62" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="Q62" s="2"/>
+        <v>7500</v>
+      </c>
+      <c r="G62" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
       <c r="V62" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="W62" s="2">
         <v>1.25</v>
       </c>
-      <c r="AD62" s="2"/>
-      <c r="AE62" s="2"/>
-      <c r="AF62" s="2"/>
-      <c r="AG62" s="2"/>
-      <c r="AH62" s="2"/>
-      <c r="AK62" s="2"/>
-      <c r="AP62" s="2"/>
-      <c r="BD62" s="2">
-        <v>1</v>
-      </c>
-      <c r="BE62" s="2">
-        <v>1</v>
-      </c>
+      <c r="AV62" s="2">
+        <v>1</v>
+      </c>
+      <c r="AW62" s="2"/>
     </row>
     <row r="63" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B63" s="2">
-        <v>125000000</v>
+        <v>5000000</v>
       </c>
       <c r="C63" s="2">
-        <v>37500</v>
-      </c>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="F63" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="J63" s="2"/>
-      <c r="P63" s="2"/>
-      <c r="Q63" s="2"/>
+        <v>1500</v>
+      </c>
+      <c r="H63" s="2">
+        <v>1.05</v>
+      </c>
       <c r="R63" s="2"/>
-      <c r="AD63" s="2"/>
-      <c r="AE63" s="2"/>
-      <c r="AF63" s="2"/>
-      <c r="AG63" s="2"/>
-      <c r="AH63" s="2"/>
-      <c r="AJ63" s="2">
-        <v>1</v>
-      </c>
-      <c r="AK63" s="2"/>
-      <c r="AM63" s="2">
-        <v>1</v>
-      </c>
-      <c r="AP63" s="2">
-        <v>1</v>
-      </c>
-      <c r="AZ63" s="2">
-        <v>1</v>
-      </c>
-      <c r="BA63" s="2">
-        <v>1</v>
-      </c>
-      <c r="BB63" s="2">
-        <v>1</v>
-      </c>
-      <c r="BG63" s="2">
+      <c r="V63" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AQ63" s="2"/>
+      <c r="AR63" s="2"/>
+      <c r="AS63" s="2"/>
+      <c r="AU63" s="2"/>
+      <c r="AW63" s="2"/>
+      <c r="BD63" s="2">
+        <v>1</v>
+      </c>
+      <c r="BE63" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B64" s="2">
-        <v>3250000000</v>
+        <v>30000000</v>
       </c>
       <c r="C64" s="2">
-        <v>875000</v>
-      </c>
-      <c r="D64" s="2"/>
+        <v>5000</v>
+      </c>
       <c r="F64" s="2">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="J64" s="2"/>
-      <c r="R64" s="2"/>
-      <c r="AD64" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE64" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF64" s="2">
-        <v>1</v>
-      </c>
-      <c r="AP64" s="2">
-        <v>1</v>
-      </c>
-      <c r="AQ64" s="2"/>
-      <c r="BB64" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H64" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q64" s="2"/>
+      <c r="V64" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="AD64" s="2"/>
+      <c r="AE64" s="2"/>
+      <c r="AF64" s="2"/>
+      <c r="AG64" s="2"/>
+      <c r="AH64" s="2"/>
+      <c r="AK64" s="2"/>
+      <c r="AP64" s="2"/>
+      <c r="BD64" s="2">
+        <v>1</v>
+      </c>
+      <c r="BE64" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B65" s="2">
-        <v>2875000000</v>
+        <v>125000000</v>
       </c>
       <c r="C65" s="2">
-        <v>562500</v>
-      </c>
+        <v>37500</v>
+      </c>
+      <c r="D65" s="2"/>
       <c r="E65" s="2">
-        <v>1.55</v>
+        <v>1.2</v>
       </c>
       <c r="F65" s="2">
-        <v>1.55</v>
-      </c>
-      <c r="Y65" s="2"/>
+        <v>1.2</v>
+      </c>
+      <c r="J65" s="2"/>
+      <c r="P65" s="2"/>
+      <c r="Q65" s="2"/>
+      <c r="R65" s="2"/>
+      <c r="AD65" s="2"/>
+      <c r="AE65" s="2"/>
+      <c r="AF65" s="2"/>
+      <c r="AG65" s="2"/>
+      <c r="AH65" s="2"/>
       <c r="AJ65" s="2">
         <v>1</v>
       </c>
-      <c r="BF65" s="2"/>
+      <c r="AK65" s="2"/>
+      <c r="AM65" s="2">
+        <v>1</v>
+      </c>
+      <c r="AP65" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ65" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA65" s="2">
+        <v>1</v>
+      </c>
+      <c r="BB65" s="2">
+        <v>1</v>
+      </c>
+      <c r="BG65" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="66" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B66" s="2">
-        <v>1750000000</v>
+        <v>3250000000</v>
       </c>
       <c r="C66" s="2">
-        <v>200000</v>
-      </c>
-      <c r="D66" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="J66" s="2">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="R66" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="T66" s="2"/>
-      <c r="U66" s="2"/>
-      <c r="AI66" s="2"/>
-      <c r="AL66" s="2"/>
-      <c r="AN66" s="2"/>
-      <c r="AQ66" s="2">
-        <v>1</v>
-      </c>
-      <c r="BC66" s="2"/>
+        <v>875000</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="F66" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J66" s="2"/>
+      <c r="R66" s="2"/>
+      <c r="AD66" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE66" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF66" s="2">
+        <v>1</v>
+      </c>
+      <c r="AP66" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ66" s="2"/>
+      <c r="BB66" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="67" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B67" s="2">
-        <v>250000000</v>
+        <v>2875000000</v>
       </c>
       <c r="C67" s="2">
-        <v>20000</v>
-      </c>
-      <c r="J67" s="2">
-        <v>1.25</v>
-      </c>
-      <c r="AS67" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU67" s="2"/>
+        <v>562500</v>
+      </c>
+      <c r="E67" s="2">
+        <v>1.55</v>
+      </c>
+      <c r="F67" s="2">
+        <v>1.55</v>
+      </c>
+      <c r="Y67" s="2"/>
+      <c r="AJ67" s="2">
+        <v>1</v>
+      </c>
+      <c r="BF67" s="2"/>
     </row>
     <row r="68" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B68" s="2">
-        <v>375000000</v>
+        <v>1750000000</v>
       </c>
       <c r="C68" s="2">
-        <v>37500</v>
-      </c>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
+        <v>200000</v>
+      </c>
+      <c r="D68" s="2">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="J68" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="AJ68" s="2"/>
-      <c r="AU68" s="2">
-        <v>1</v>
-      </c>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="R68" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="T68" s="2"/>
+      <c r="U68" s="2"/>
+      <c r="AI68" s="2"/>
+      <c r="AL68" s="2"/>
+      <c r="AN68" s="2"/>
+      <c r="AQ68" s="2">
+        <v>1</v>
+      </c>
+      <c r="BC68" s="2"/>
     </row>
     <row r="69" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B69" s="2">
-        <v>1375000000</v>
+        <v>250000000</v>
       </c>
       <c r="C69" s="2">
-        <v>187500</v>
-      </c>
-      <c r="D69" s="2">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="G69" s="2"/>
+        <v>20000</v>
+      </c>
       <c r="J69" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="Q69" s="2">
-        <v>1.03</v>
-      </c>
-      <c r="AJ69" s="2"/>
-      <c r="AL69" s="2">
-        <v>1</v>
-      </c>
-      <c r="AM69" s="2"/>
-      <c r="AO69" s="2"/>
-      <c r="AV69" s="2"/>
-      <c r="AX69" s="2"/>
-      <c r="AY69" s="2"/>
-      <c r="BA69" s="2"/>
-      <c r="BB69" s="2"/>
+        <v>1.25</v>
+      </c>
+      <c r="AS69" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU69" s="2"/>
     </row>
     <row r="70" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B70" s="2">
-        <v>4000000</v>
+        <v>375000000</v>
       </c>
       <c r="C70" s="2">
-        <v>1000</v>
-      </c>
-      <c r="I70" s="2"/>
+        <v>37500</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
       <c r="J70" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="K70" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L70" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M70" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="N70" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="O70" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AT70" s="2"/>
-      <c r="AU70" s="2"/>
-      <c r="AV70" s="2"/>
-      <c r="AW70" s="2"/>
-      <c r="AX70" s="2"/>
-      <c r="AY70" s="2"/>
-      <c r="BC70" s="2"/>
-      <c r="BG70" s="2"/>
-      <c r="BH70" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="AJ70" s="2"/>
+      <c r="AU70" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B71" s="2">
-        <v>45000000</v>
+        <v>1375000000</v>
       </c>
       <c r="C71" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I71" s="2"/>
+        <v>187500</v>
+      </c>
+      <c r="D71" s="2">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G71" s="2"/>
       <c r="J71" s="2">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="K71" s="2">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="L71" s="2">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="M71" s="2">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="N71" s="2">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="O71" s="2">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="AQ71" s="2">
-        <v>1</v>
-      </c>
-      <c r="AS71" s="2">
-        <v>1</v>
-      </c>
-      <c r="BC71" s="2"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q71" s="2">
+        <v>1.03</v>
+      </c>
+      <c r="AJ71" s="2"/>
+      <c r="AL71" s="2">
+        <v>1</v>
+      </c>
+      <c r="AM71" s="2"/>
+      <c r="AO71" s="2"/>
+      <c r="AV71" s="2"/>
+      <c r="AX71" s="2"/>
+      <c r="AY71" s="2"/>
+      <c r="BA71" s="2"/>
+      <c r="BB71" s="2"/>
     </row>
     <row r="72" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B72" s="2">
-        <v>130000000</v>
+        <v>4000000</v>
       </c>
       <c r="C72" s="2">
-        <v>25000</v>
+        <v>1000</v>
       </c>
       <c r="I72" s="2"/>
       <c r="J72" s="2">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K72" s="2">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L72" s="2">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="M72" s="2">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N72" s="2">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="O72" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="AI72" s="2"/>
-      <c r="AK72" s="2">
-        <v>1</v>
-      </c>
-      <c r="AL72" s="2"/>
-      <c r="AM72" s="2"/>
-      <c r="AN72" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AT72" s="2"/>
+      <c r="AU72" s="2"/>
+      <c r="AV72" s="2"/>
+      <c r="AW72" s="2"/>
+      <c r="AX72" s="2"/>
+      <c r="AY72" s="2"/>
+      <c r="BC72" s="2"/>
+      <c r="BG72" s="2"/>
+      <c r="BH72" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B73" s="2">
-        <v>2500000</v>
+        <v>45000000</v>
       </c>
       <c r="C73" s="2">
-        <v>6250</v>
+        <v>10000</v>
+      </c>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2">
+        <v>1.1499999999999999</v>
       </c>
       <c r="K73" s="2">
-        <v>1.2</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="L73" s="2">
-        <v>1.2</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="M73" s="2">
-        <v>1.2</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="N73" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="AW73" s="2">
-        <v>1</v>
-      </c>
-      <c r="AX73" s="2"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="O73" s="2">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="AQ73" s="2">
+        <v>1</v>
+      </c>
+      <c r="AS73" s="2">
+        <v>1</v>
+      </c>
+      <c r="BC73" s="2"/>
     </row>
     <row r="74" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B74" s="2">
-        <v>2875000000</v>
+        <v>130000000</v>
       </c>
       <c r="C74" s="2">
-        <v>625000</v>
-      </c>
-      <c r="D74" s="2">
+        <v>25000</v>
+      </c>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2">
         <v>1.2</v>
       </c>
-      <c r="F74" s="2"/>
-      <c r="H74" s="2"/>
-      <c r="J74" s="2">
-        <v>1.25</v>
-      </c>
-      <c r="V74" s="2"/>
-      <c r="AM74" s="2">
-        <v>1</v>
-      </c>
-      <c r="BD74" s="2"/>
-      <c r="BE74" s="2"/>
+      <c r="K74" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="L74" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="M74" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="N74" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="O74" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="AI74" s="2"/>
+      <c r="AK74" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL74" s="2"/>
+      <c r="AM74" s="2"/>
+      <c r="AN74" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="75" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B75" s="2">
-        <v>3750000000</v>
+        <v>2500000</v>
       </c>
       <c r="C75" s="2">
-        <v>375000</v>
-      </c>
-      <c r="D75" s="2">
-        <v>1.08</v>
-      </c>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-      <c r="T75" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="AG75" s="2">
-        <v>1</v>
-      </c>
-      <c r="AJ75" s="2">
-        <v>1</v>
-      </c>
-      <c r="AM75" s="2">
-        <v>1</v>
-      </c>
-      <c r="AN75" s="2">
-        <v>1</v>
-      </c>
-      <c r="AO75" s="2"/>
-      <c r="AV75" s="2"/>
+        <v>6250</v>
+      </c>
+      <c r="K75" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="L75" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="M75" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="N75" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="AW75" s="2">
+        <v>1</v>
+      </c>
       <c r="AX75" s="2"/>
-      <c r="AY75" s="2"/>
-      <c r="BA75" s="2"/>
-      <c r="BB75" s="2"/>
-      <c r="BE75" s="2"/>
     </row>
     <row r="76" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B76" s="2">
-        <v>7500000000</v>
+        <v>2875000000</v>
       </c>
       <c r="C76" s="2">
-        <v>1500000</v>
+        <v>625000</v>
       </c>
       <c r="D76" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E76" s="2"/>
+        <v>1.2</v>
+      </c>
       <c r="F76" s="2"/>
-      <c r="Q76" s="2">
-        <v>1.05</v>
-      </c>
-      <c r="T76" s="2">
-        <v>2</v>
-      </c>
-      <c r="AF76" s="2"/>
-      <c r="AJ76" s="2"/>
-      <c r="AM76" s="2"/>
-      <c r="AO76" s="2"/>
-      <c r="AP76" s="2">
-        <v>1</v>
-      </c>
-      <c r="BA76" s="2"/>
-      <c r="BB76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="J76" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="V76" s="2"/>
+      <c r="AM76" s="2">
+        <v>1</v>
+      </c>
+      <c r="BD76" s="2"/>
+      <c r="BE76" s="2"/>
     </row>
     <row r="77" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B77" s="2">
-        <v>4500000000</v>
+        <v>7500000000</v>
       </c>
       <c r="C77" s="2">
-        <v>500000</v>
+        <v>1500000</v>
       </c>
       <c r="D77" s="2">
         <v>1.1000000000000001</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
+      <c r="Q77" s="2">
+        <v>1.05</v>
+      </c>
       <c r="T77" s="2">
-        <v>1.75</v>
-      </c>
-      <c r="AG77" s="2">
-        <v>1</v>
-      </c>
-      <c r="AJ77" s="2">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="AF77" s="2"/>
+      <c r="AJ77" s="2"/>
       <c r="AM77" s="2"/>
       <c r="AO77" s="2"/>
       <c r="AP77" s="2">
         <v>1</v>
       </c>
-      <c r="AV77" s="2"/>
-      <c r="AX77" s="2"/>
-      <c r="AY77" s="2"/>
       <c r="BA77" s="2"/>
       <c r="BB77" s="2"/>
     </row>
@@ -4331,7 +4335,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="AD2:BH88">
-    <cfRule type="notContainsBlanks" dxfId="12" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(AD2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/data/other/Bitburner Augmentation List.xlsx
+++ b/data/other/Bitburner Augmentation List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/90b86913ab8efd7b/Desktop/bitburner/bitburner/data/other/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{1682997B-E048-4283-9DBA-B8AC6C9FBBD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{264FE6F6-8A95-4431-B7FB-105C979414A7}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="8_{1682997B-E048-4283-9DBA-B8AC6C9FBBD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0019AF5D-1167-4ABB-BDF8-8251B9F5E1DB}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="51420" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -743,7 +743,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0A318A5B-C7A4-4EDB-BC6E-6FFF98D93E20}" name="Table1" displayName="Table1" ref="A1:BH89" totalsRowShown="0" headerRowDxfId="12">
   <autoFilter ref="A1:BH89" xr:uid="{0A318A5B-C7A4-4EDB-BC6E-6FFF98D93E20}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BH89">
-    <sortCondition descending="1" ref="J1:J89"/>
+    <sortCondition descending="1" ref="AI1:AI89"/>
   </sortState>
   <tableColumns count="60">
     <tableColumn id="1" xr3:uid="{4CD68E69-762D-45CB-9BAC-8430ED162C13}" name="name" dataDxfId="11"/>
@@ -1117,7 +1117,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5:XFD5"/>
+      <selection pane="bottomRight" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1312,1006 +1312,979 @@
     </row>
     <row r="2" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B2" s="2">
-        <v>375000000</v>
+        <v>3000000000</v>
       </c>
       <c r="C2" s="2">
-        <v>37500</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+        <v>50000</v>
+      </c>
+      <c r="I2" s="2"/>
       <c r="J2" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="AJ2" s="2"/>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>1.02</v>
+      </c>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="AI2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AR2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT2" s="2">
+        <v>1</v>
+      </c>
       <c r="AU2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AW2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY2" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B3" s="2">
-        <v>7500000000</v>
+        <v>900000000</v>
       </c>
       <c r="C3" s="2">
-        <v>1750000</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1.1000000000000001</v>
-      </c>
+        <v>75000</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
       <c r="J3" s="2">
-        <v>1.25</v>
-      </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="Q3" s="2">
         <v>1.05</v>
       </c>
-      <c r="R3" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="AD3" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE3" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF3" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG3" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH3" s="2">
-        <v>1</v>
-      </c>
-      <c r="AK3" s="2">
-        <v>1</v>
-      </c>
-      <c r="AP3" s="2">
-        <v>1</v>
-      </c>
-      <c r="BH3" s="2"/>
+      <c r="K3" s="2">
+        <v>1.05</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1.05</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1.05</v>
+      </c>
+      <c r="N3" s="2">
+        <v>1.05</v>
+      </c>
+      <c r="O3" s="2">
+        <v>1.05</v>
+      </c>
+      <c r="T3" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="X3" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2"/>
+      <c r="AI3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ3" s="2"/>
+      <c r="AK3" s="2"/>
+      <c r="AL3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AP3" s="2"/>
+      <c r="AZ3" s="2"/>
     </row>
     <row r="4" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>116</v>
+        <v>61</v>
       </c>
       <c r="B4" s="2">
-        <v>250000000</v>
+        <v>550000000</v>
       </c>
       <c r="C4" s="2">
-        <v>20000</v>
-      </c>
-      <c r="J4" s="2">
-        <v>1.25</v>
-      </c>
-      <c r="AS4" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU4" s="2"/>
+        <v>62500</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="T4" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="U4" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AI4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AP4" s="2"/>
+      <c r="BB4" s="2"/>
+      <c r="BC4" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="B5" s="2">
-        <v>2875000000</v>
+        <v>1375000000</v>
       </c>
       <c r="C5" s="2">
-        <v>625000</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="J5" s="2">
-        <v>1.25</v>
-      </c>
-      <c r="V5" s="2"/>
+        <v>375000</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="I5" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="O5" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="T5" s="2"/>
+      <c r="AG5" s="2"/>
+      <c r="AI5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ5" s="2"/>
+      <c r="AK5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL5" s="2">
+        <v>1</v>
+      </c>
       <c r="AM5" s="2">
         <v>1</v>
       </c>
-      <c r="BD5" s="2"/>
-      <c r="BE5" s="2"/>
+      <c r="AN5" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="B6" s="2">
-        <v>4375000000</v>
+        <v>20000000</v>
       </c>
       <c r="C6" s="2">
-        <v>875000</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="J6" s="2">
+        <v>5000</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="T6" s="2">
         <v>1.2</v>
       </c>
-      <c r="P6" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>1.05</v>
-      </c>
-      <c r="AE6" s="2"/>
-      <c r="AQ6" s="2">
+      <c r="AF6" s="2"/>
+      <c r="AI6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="2"/>
+      <c r="AL6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AM6" s="2"/>
+      <c r="AN6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO6" s="2"/>
+      <c r="AU6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AW6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY6" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA6" s="2"/>
+      <c r="BB6" s="2"/>
+      <c r="BG6" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="B7" s="2">
-        <v>130000000</v>
+        <v>2750000000</v>
       </c>
       <c r="C7" s="2">
-        <v>25000</v>
-      </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="K7" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="L7" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="M7" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="N7" s="2">
-        <v>1.2</v>
+        <v>375000</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1.5</v>
       </c>
       <c r="O7" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="AI7" s="2"/>
-      <c r="AK7" s="2">
-        <v>1</v>
-      </c>
-      <c r="AL7" s="2"/>
-      <c r="AM7" s="2"/>
-      <c r="AN7" s="2">
-        <v>1</v>
-      </c>
+        <v>1.5</v>
+      </c>
+      <c r="T7" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="U7" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="Y7" s="2"/>
+      <c r="AI7" s="2">
+        <v>1</v>
+      </c>
+      <c r="BF7" s="2"/>
     </row>
     <row r="8" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>90</v>
+        <v>136</v>
       </c>
       <c r="B8" s="2">
-        <v>4500000000</v>
+        <v>12500000</v>
       </c>
       <c r="C8" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1.08</v>
-      </c>
-      <c r="J8" s="2">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="P8" s="2">
-        <v>1.05</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>1.05</v>
-      </c>
-      <c r="R8" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="AG8" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH8" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI8" s="2"/>
-      <c r="AJ8" s="2">
-        <v>1</v>
-      </c>
-      <c r="AK8" s="2">
-        <v>1</v>
-      </c>
-      <c r="AL8" s="2"/>
-      <c r="AM8" s="2">
-        <v>1</v>
-      </c>
-      <c r="AN8" s="2"/>
+        <v>2500</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="T8" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AI8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK8" s="2"/>
+      <c r="AL8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN8" s="2">
+        <v>1</v>
+      </c>
       <c r="AO8" s="2">
         <v>1</v>
       </c>
-      <c r="AP8" s="2">
-        <v>1</v>
-      </c>
-      <c r="AQ8" s="2">
-        <v>1</v>
-      </c>
-      <c r="AR8" s="2"/>
-      <c r="AT8" s="2"/>
-      <c r="AU8" s="2"/>
-      <c r="AV8" s="2"/>
-      <c r="AW8" s="2"/>
-      <c r="AX8" s="2"/>
-      <c r="AY8" s="2"/>
+      <c r="AP8" s="2"/>
+      <c r="AZ8" s="2">
+        <v>1</v>
+      </c>
+      <c r="BG8" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="B9" s="2">
-        <v>225000000</v>
+        <v>375000000</v>
       </c>
       <c r="C9" s="2">
-        <v>45000</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1.08</v>
+        <v>37500</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
       <c r="J9" s="2">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="AH9" s="2"/>
-      <c r="AS9" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="AJ9" s="2"/>
+      <c r="AU9" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="B10" s="2">
-        <v>1750000000</v>
+        <v>7500000000</v>
       </c>
       <c r="C10" s="2">
-        <v>200000</v>
+        <v>1750000</v>
       </c>
       <c r="D10" s="2">
         <v>1.1000000000000001</v>
       </c>
       <c r="J10" s="2">
-        <v>1.1499999999999999</v>
+        <v>1.25</v>
+      </c>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>1.05</v>
       </c>
       <c r="R10" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="AI10" s="2"/>
-      <c r="AL10" s="2"/>
-      <c r="AN10" s="2"/>
-      <c r="AQ10" s="2">
-        <v>1</v>
-      </c>
-      <c r="BC10" s="2"/>
+        <v>1.4</v>
+      </c>
+      <c r="AD10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AP10" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH10" s="2"/>
     </row>
     <row r="11" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B11" s="2">
-        <v>45000000</v>
+        <v>250000000</v>
       </c>
       <c r="C11" s="2">
-        <v>10000</v>
-      </c>
-      <c r="I11" s="2"/>
+        <v>20000</v>
+      </c>
       <c r="J11" s="2">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="K11" s="2">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="L11" s="2">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="M11" s="2">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="N11" s="2">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="O11" s="2">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="AQ11" s="2">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AS11" s="2">
         <v>1</v>
       </c>
-      <c r="BC11" s="2"/>
+      <c r="AU11" s="2"/>
     </row>
     <row r="12" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="B12" s="2">
-        <v>4250000000</v>
+        <v>2875000000</v>
       </c>
       <c r="C12" s="2">
-        <v>875000</v>
+        <v>625000</v>
       </c>
       <c r="D12" s="2">
         <v>1.2</v>
       </c>
-      <c r="E12" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="F12" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="G12" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="H12" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="I12" s="2">
-        <v>1.2</v>
-      </c>
+      <c r="F12" s="2"/>
+      <c r="H12" s="2"/>
       <c r="J12" s="2">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="K12" s="2">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="L12" s="2">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="M12" s="2">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="N12" s="2">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="O12" s="2">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="AJ12" s="2"/>
-      <c r="AK12" s="2">
-        <v>1</v>
-      </c>
-      <c r="AO12" s="2"/>
+        <v>1.25</v>
+      </c>
+      <c r="V12" s="2"/>
+      <c r="AM12" s="2">
+        <v>1</v>
+      </c>
+      <c r="BD12" s="2"/>
+      <c r="BE12" s="2"/>
     </row>
     <row r="13" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="B13" s="2">
-        <v>3000000000</v>
+        <v>4375000000</v>
       </c>
       <c r="C13" s="2">
-        <v>50000</v>
-      </c>
-      <c r="I13" s="2"/>
+        <v>875000</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1.1499999999999999</v>
+      </c>
       <c r="J13" s="2">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="O13" s="2"/>
+        <v>1.2</v>
+      </c>
       <c r="P13" s="2">
         <v>1.1000000000000001</v>
       </c>
       <c r="Q13" s="2">
-        <v>1.02</v>
-      </c>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-      <c r="AI13" s="2">
-        <v>1</v>
-      </c>
-      <c r="AL13" s="2">
-        <v>1</v>
-      </c>
-      <c r="AN13" s="2">
-        <v>1</v>
-      </c>
-      <c r="AR13" s="2">
-        <v>1</v>
-      </c>
-      <c r="AT13" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU13" s="2">
-        <v>1</v>
-      </c>
-      <c r="AV13" s="2">
-        <v>1</v>
-      </c>
-      <c r="AW13" s="2">
-        <v>1</v>
-      </c>
-      <c r="AX13" s="2">
-        <v>1</v>
-      </c>
-      <c r="AY13" s="2">
+        <v>1.05</v>
+      </c>
+      <c r="AE13" s="2"/>
+      <c r="AQ13" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="B14" s="2">
-        <v>1375000000</v>
+        <v>130000000</v>
       </c>
       <c r="C14" s="2">
-        <v>100000</v>
-      </c>
-      <c r="D14" s="2">
-        <v>1.08</v>
-      </c>
+        <v>25000</v>
+      </c>
+      <c r="I14" s="2"/>
       <c r="J14" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="Q14" s="2">
-        <v>1.03</v>
-      </c>
-      <c r="AP14" s="2">
-        <v>1</v>
-      </c>
-      <c r="AQ14" s="2">
-        <v>1</v>
-      </c>
-      <c r="AR14" s="2">
-        <v>1</v>
-      </c>
-      <c r="AS14" s="2"/>
-      <c r="BH14" s="2"/>
+        <v>1.2</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="L14" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="N14" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="O14" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="AI14" s="2"/>
+      <c r="AK14" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL14" s="2"/>
+      <c r="AM14" s="2"/>
+      <c r="AN14" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="B15" s="2">
-        <v>1375000000</v>
+        <v>4500000000</v>
       </c>
       <c r="C15" s="2">
-        <v>187500</v>
+        <v>1000000</v>
       </c>
       <c r="D15" s="2">
+        <v>1.08</v>
+      </c>
+      <c r="J15" s="2">
         <v>1.1499999999999999</v>
       </c>
-      <c r="G15" s="2"/>
-      <c r="J15" s="2">
-        <v>1.1000000000000001</v>
+      <c r="P15" s="2">
+        <v>1.05</v>
       </c>
       <c r="Q15" s="2">
-        <v>1.03</v>
-      </c>
-      <c r="AJ15" s="2"/>
-      <c r="AL15" s="2">
-        <v>1</v>
-      </c>
-      <c r="AM15" s="2"/>
-      <c r="AO15" s="2"/>
+        <v>1.05</v>
+      </c>
+      <c r="R15" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="AG15" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH15" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI15" s="2"/>
+      <c r="AJ15" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK15" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL15" s="2"/>
+      <c r="AM15" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN15" s="2"/>
+      <c r="AO15" s="2">
+        <v>1</v>
+      </c>
+      <c r="AP15" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ15" s="2">
+        <v>1</v>
+      </c>
+      <c r="AR15" s="2"/>
+      <c r="AT15" s="2"/>
+      <c r="AU15" s="2"/>
       <c r="AV15" s="2"/>
+      <c r="AW15" s="2"/>
       <c r="AX15" s="2"/>
       <c r="AY15" s="2"/>
-      <c r="BA15" s="2"/>
-      <c r="BB15" s="2"/>
     </row>
     <row r="16" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="B16" s="2">
-        <v>4000000</v>
+        <v>225000000</v>
       </c>
       <c r="C16" s="2">
-        <v>1000</v>
-      </c>
-      <c r="I16" s="2"/>
+        <v>45000</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1.08</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
       <c r="J16" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="K16" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L16" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M16" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="N16" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="O16" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AT16" s="2"/>
-      <c r="AU16" s="2"/>
-      <c r="AV16" s="2"/>
-      <c r="AW16" s="2"/>
-      <c r="AX16" s="2"/>
-      <c r="AY16" s="2"/>
-      <c r="BC16" s="2"/>
-      <c r="BG16" s="2"/>
-      <c r="BH16" s="2">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="AH16" s="2"/>
+      <c r="AS16" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="B17" s="2">
-        <v>180000000</v>
+        <v>1750000000</v>
       </c>
       <c r="C17" s="2">
-        <v>25000</v>
+        <v>200000</v>
       </c>
       <c r="D17" s="2">
-        <v>1.05</v>
-      </c>
-      <c r="E17" s="2">
-        <v>1.05</v>
-      </c>
-      <c r="F17" s="2">
-        <v>1.05</v>
-      </c>
-      <c r="G17" s="2">
-        <v>1.05</v>
-      </c>
-      <c r="H17" s="2">
-        <v>1.05</v>
-      </c>
-      <c r="I17" s="2">
-        <v>1.05</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J17" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="K17" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L17" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M17" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="N17" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="O17" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="AK17" s="2">
-        <v>1</v>
-      </c>
-      <c r="AQ17" s="2"/>
-      <c r="AR17" s="2"/>
-      <c r="BA17" s="2">
-        <v>1</v>
-      </c>
-      <c r="BB17" s="2">
-        <v>1</v>
-      </c>
-      <c r="BD17" s="2">
-        <v>1</v>
-      </c>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="R17" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="AI17" s="2"/>
+      <c r="AL17" s="2"/>
+      <c r="AN17" s="2"/>
+      <c r="AQ17" s="2">
+        <v>1</v>
+      </c>
+      <c r="BC17" s="2"/>
     </row>
     <row r="18" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="B18" s="2">
-        <v>2500000000</v>
+        <v>45000000</v>
       </c>
       <c r="C18" s="2">
-        <v>250000</v>
-      </c>
-      <c r="D18" s="2">
-        <v>1.07</v>
-      </c>
+        <v>10000</v>
+      </c>
+      <c r="I18" s="2"/>
       <c r="J18" s="2">
-        <v>1.07</v>
-      </c>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2">
-        <v>1.03</v>
-      </c>
-      <c r="Q18" s="2">
-        <v>1.03</v>
-      </c>
-      <c r="R18" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AG18" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH18" s="2">
-        <v>1</v>
-      </c>
-      <c r="AJ18" s="2">
-        <v>1</v>
-      </c>
-      <c r="AK18" s="2">
-        <v>1</v>
-      </c>
-      <c r="AP18" s="2">
-        <v>1</v>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="L18" s="2">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="M18" s="2">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="N18" s="2">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="O18" s="2">
+        <v>1.1499999999999999</v>
       </c>
       <c r="AQ18" s="2">
         <v>1</v>
       </c>
-      <c r="AR18" s="2">
-        <v>1</v>
-      </c>
-      <c r="AS18" s="2"/>
+      <c r="AS18" s="2">
+        <v>1</v>
+      </c>
+      <c r="BC18" s="2"/>
     </row>
     <row r="19" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>63</v>
+        <v>146</v>
       </c>
       <c r="B19" s="2">
-        <v>80000000</v>
+        <v>4250000000</v>
       </c>
       <c r="C19" s="2">
-        <v>6250</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
+        <v>875000</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1.2</v>
+      </c>
       <c r="J19" s="2">
-        <v>1.05</v>
-      </c>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2">
-        <v>1.05</v>
-      </c>
-      <c r="Q19" s="2">
-        <v>1.02</v>
-      </c>
-      <c r="AK19" s="2"/>
-      <c r="AR19" s="2">
-        <v>1</v>
-      </c>
-      <c r="AS19" s="2">
-        <v>1</v>
-      </c>
-      <c r="BA19" s="2"/>
-      <c r="BB19" s="2"/>
-      <c r="BD19" s="2"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="K19" s="2">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="L19" s="2">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="M19" s="2">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="N19" s="2">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="O19" s="2">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="AJ19" s="2"/>
+      <c r="AK19" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO19" s="2"/>
     </row>
     <row r="20" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B20" s="2">
-        <v>900000000</v>
+        <v>1375000000</v>
       </c>
       <c r="C20" s="2">
-        <v>75000</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+        <v>100000</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1.08</v>
+      </c>
       <c r="J20" s="2">
-        <v>1.05</v>
-      </c>
-      <c r="K20" s="2">
-        <v>1.05</v>
-      </c>
-      <c r="L20" s="2">
-        <v>1.05</v>
-      </c>
-      <c r="M20" s="2">
-        <v>1.05</v>
-      </c>
-      <c r="N20" s="2">
-        <v>1.05</v>
-      </c>
-      <c r="O20" s="2">
-        <v>1.05</v>
-      </c>
-      <c r="T20" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="X20" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="AD20" s="2"/>
-      <c r="AE20" s="2"/>
-      <c r="AF20" s="2"/>
-      <c r="AI20" s="2">
-        <v>1</v>
-      </c>
-      <c r="AJ20" s="2"/>
-      <c r="AK20" s="2"/>
-      <c r="AL20" s="2">
-        <v>1</v>
-      </c>
-      <c r="AN20" s="2">
-        <v>1</v>
-      </c>
-      <c r="AO20" s="2">
-        <v>1</v>
-      </c>
-      <c r="AP20" s="2"/>
-      <c r="AZ20" s="2"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>1.03</v>
+      </c>
+      <c r="AP20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AR20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AS20" s="2"/>
+      <c r="BH20" s="2"/>
     </row>
     <row r="21" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>64</v>
+        <v>119</v>
       </c>
       <c r="B21" s="2">
-        <v>15000000</v>
+        <v>1375000000</v>
       </c>
       <c r="C21" s="2">
-        <v>5000</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="G21" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-      <c r="AJ21" s="2">
-        <v>1</v>
-      </c>
-      <c r="AM21" s="2">
-        <v>1</v>
-      </c>
-      <c r="AO21" s="2">
-        <v>1</v>
-      </c>
-      <c r="AQ21" s="2"/>
-      <c r="AV21" s="2">
-        <v>1</v>
-      </c>
-      <c r="AX21" s="2">
-        <v>1</v>
-      </c>
-      <c r="AY21" s="2">
-        <v>1</v>
-      </c>
-      <c r="BA21" s="2">
-        <v>1</v>
-      </c>
-      <c r="BB21" s="2">
-        <v>1</v>
-      </c>
-      <c r="BE21" s="2">
-        <v>1</v>
-      </c>
+        <v>187500</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="J21" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>1.03</v>
+      </c>
+      <c r="AJ21" s="2"/>
+      <c r="AL21" s="2">
+        <v>1</v>
+      </c>
+      <c r="AM21" s="2"/>
+      <c r="AO21" s="2"/>
+      <c r="AV21" s="2"/>
+      <c r="AX21" s="2"/>
+      <c r="AY21" s="2"/>
+      <c r="BA21" s="2"/>
+      <c r="BB21" s="2"/>
     </row>
     <row r="22" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="B22" s="2">
-        <v>42500000</v>
+        <v>4000000</v>
       </c>
       <c r="C22" s="2">
-        <v>8750</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="G22" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="J22" s="2"/>
-      <c r="AJ22" s="2">
-        <v>1</v>
-      </c>
-      <c r="AM22" s="2">
-        <v>1</v>
-      </c>
-      <c r="AO22" s="2">
-        <v>1</v>
-      </c>
-      <c r="AV22" s="2">
-        <v>1</v>
-      </c>
-      <c r="AX22" s="2">
-        <v>1</v>
-      </c>
-      <c r="AY22" s="2">
-        <v>1</v>
-      </c>
-      <c r="BA22" s="2">
-        <v>1</v>
-      </c>
-      <c r="BB22" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K22" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L22" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M22" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N22" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O22" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AT22" s="2"/>
+      <c r="AU22" s="2"/>
+      <c r="AV22" s="2"/>
+      <c r="AW22" s="2"/>
+      <c r="AX22" s="2"/>
+      <c r="AY22" s="2"/>
+      <c r="BC22" s="2"/>
+      <c r="BG22" s="2"/>
+      <c r="BH22" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>66</v>
+        <v>131</v>
       </c>
       <c r="B23" s="2">
-        <v>115000000</v>
+        <v>180000000</v>
       </c>
       <c r="C23" s="2">
-        <v>27500</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+        <v>25000</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1.05</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1.05</v>
+      </c>
+      <c r="F23" s="2">
+        <v>1.05</v>
+      </c>
       <c r="G23" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="AF23" s="2">
-        <v>1</v>
-      </c>
-      <c r="AJ23" s="2">
-        <v>1</v>
-      </c>
-      <c r="AK23" s="2"/>
-      <c r="AM23" s="2">
-        <v>1</v>
-      </c>
-      <c r="AO23" s="2">
-        <v>1</v>
-      </c>
+        <v>1.05</v>
+      </c>
+      <c r="H23" s="2">
+        <v>1.05</v>
+      </c>
+      <c r="I23" s="2">
+        <v>1.05</v>
+      </c>
+      <c r="J23" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K23" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L23" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M23" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N23" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O23" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="AK23" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ23" s="2"/>
+      <c r="AR23" s="2"/>
       <c r="BA23" s="2">
         <v>1</v>
       </c>
       <c r="BB23" s="2">
+        <v>1</v>
+      </c>
+      <c r="BD23" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="B24" s="2">
-        <v>375000000</v>
+        <v>2500000000</v>
       </c>
       <c r="C24" s="2">
-        <v>150000</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="H24" s="2">
-        <v>1.6</v>
-      </c>
-      <c r="J24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-      <c r="AG24" s="2"/>
-      <c r="AH24" s="2"/>
+        <v>250000</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1.07</v>
+      </c>
+      <c r="J24" s="2">
+        <v>1.07</v>
+      </c>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2">
+        <v>1.03</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>1.03</v>
+      </c>
+      <c r="R24" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AG24" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH24" s="2">
+        <v>1</v>
+      </c>
       <c r="AJ24" s="2">
         <v>1</v>
       </c>
-      <c r="AK24" s="2"/>
-      <c r="AM24" s="2">
-        <v>1</v>
-      </c>
-      <c r="AO24" s="2">
-        <v>1</v>
-      </c>
-      <c r="AP24" s="2"/>
-      <c r="AQ24" s="2"/>
-      <c r="AZ24" s="2">
-        <v>1</v>
-      </c>
-      <c r="BB24" s="2">
-        <v>1</v>
-      </c>
+      <c r="AK24" s="2">
+        <v>1</v>
+      </c>
+      <c r="AP24" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ24" s="2">
+        <v>1</v>
+      </c>
+      <c r="AR24" s="2">
+        <v>1</v>
+      </c>
+      <c r="AS24" s="2"/>
     </row>
     <row r="25" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B25" s="2">
-        <v>125000000</v>
+        <v>80000000</v>
       </c>
       <c r="C25" s="2">
-        <v>45000</v>
+        <v>6250</v>
       </c>
       <c r="D25" s="2"/>
-      <c r="E25" s="2">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="F25" s="2">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="G25" s="2">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="H25" s="2">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
-      <c r="AJ25" s="2">
-        <v>1</v>
-      </c>
-      <c r="AM25" s="2">
-        <v>1</v>
-      </c>
-      <c r="AO25" s="2">
-        <v>1</v>
-      </c>
-      <c r="AR25" s="2"/>
-      <c r="AZ25" s="2">
-        <v>1</v>
-      </c>
-      <c r="BB25" s="2">
-        <v>1</v>
-      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2">
+        <v>1.05</v>
+      </c>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2">
+        <v>1.05</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>1.02</v>
+      </c>
+      <c r="AK25" s="2"/>
+      <c r="AR25" s="2">
+        <v>1</v>
+      </c>
+      <c r="AS25" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA25" s="2"/>
+      <c r="BB25" s="2"/>
+      <c r="BD25" s="2"/>
     </row>
     <row r="26" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B26" s="2">
-        <v>23750000</v>
+        <v>15000000</v>
       </c>
       <c r="C26" s="2">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="D26" s="2"/>
-      <c r="E26" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F26" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="J26" s="2"/>
-      <c r="Q26" s="2"/>
+      <c r="G26" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
       <c r="AJ26" s="2">
         <v>1</v>
       </c>
-      <c r="AL26" s="2"/>
       <c r="AM26" s="2">
         <v>1</v>
       </c>
       <c r="AO26" s="2">
         <v>1</v>
       </c>
+      <c r="AQ26" s="2"/>
       <c r="AV26" s="2">
         <v>1</v>
       </c>
@@ -2333,24 +2306,19 @@
     </row>
     <row r="27" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B27" s="2">
-        <v>65000000</v>
+        <v>42500000</v>
       </c>
       <c r="C27" s="2">
-        <v>18750</v>
+        <v>8750</v>
       </c>
       <c r="D27" s="2"/>
-      <c r="E27" s="2">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="F27" s="2">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="AF27" s="2"/>
+      <c r="G27" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="J27" s="2"/>
       <c r="AJ27" s="2">
         <v>1</v>
       </c>
@@ -2378,37 +2346,41 @@
     </row>
     <row r="28" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B28" s="2">
-        <v>120000000</v>
+        <v>115000000</v>
       </c>
       <c r="C28" s="2">
-        <v>35000</v>
+        <v>27500</v>
       </c>
       <c r="D28" s="2"/>
-      <c r="E28" s="2">
-        <v>1.18</v>
-      </c>
-      <c r="F28" s="2">
-        <v>1.18</v>
-      </c>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
       <c r="AF28" s="2">
         <v>1</v>
       </c>
       <c r="AJ28" s="2">
         <v>1</v>
       </c>
+      <c r="AK28" s="2"/>
       <c r="AM28" s="2">
         <v>1</v>
       </c>
       <c r="AO28" s="2">
         <v>1</v>
       </c>
-      <c r="AP28" s="2"/>
-      <c r="AQ28" s="2"/>
       <c r="BA28" s="2">
         <v>1</v>
       </c>
@@ -2418,113 +2390,121 @@
     </row>
     <row r="29" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="B29" s="2">
-        <v>250000000</v>
+        <v>375000000</v>
       </c>
       <c r="C29" s="2">
-        <v>15000</v>
-      </c>
-      <c r="D29" s="2">
-        <v>1.08</v>
+        <v>150000</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="H29" s="2">
+        <v>1.6</v>
       </c>
       <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="AG29" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH29" s="2">
-        <v>1</v>
-      </c>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="AG29" s="2"/>
+      <c r="AH29" s="2"/>
       <c r="AJ29" s="2">
         <v>1</v>
       </c>
-      <c r="AK29" s="2">
-        <v>1</v>
-      </c>
-      <c r="AN29" s="2"/>
-      <c r="AP29" s="2">
-        <v>1</v>
-      </c>
-      <c r="AQ29" s="2">
-        <v>1</v>
-      </c>
-      <c r="AR29" s="2">
-        <v>1</v>
-      </c>
-      <c r="AS29" s="2">
+      <c r="AK29" s="2"/>
+      <c r="AM29" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO29" s="2">
+        <v>1</v>
+      </c>
+      <c r="AP29" s="2"/>
+      <c r="AQ29" s="2"/>
+      <c r="AZ29" s="2">
+        <v>1</v>
+      </c>
+      <c r="BB29" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>108</v>
+        <v>69</v>
       </c>
       <c r="B30" s="2">
-        <v>2750000000</v>
+        <v>125000000</v>
       </c>
       <c r="C30" s="2">
-        <v>150000</v>
+        <v>45000</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F30" s="2">
+        <v>1.1499999999999999</v>
       </c>
       <c r="G30" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="Q30" s="2">
-        <v>1.03</v>
-      </c>
-      <c r="R30" s="2">
-        <v>1.1000000000000001</v>
-      </c>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="H30" s="2">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
       <c r="AJ30" s="2">
         <v>1</v>
       </c>
+      <c r="AM30" s="2">
+        <v>1</v>
+      </c>
       <c r="AO30" s="2">
         <v>1</v>
       </c>
-      <c r="BH30" s="2"/>
+      <c r="AR30" s="2"/>
+      <c r="AZ30" s="2">
+        <v>1</v>
+      </c>
+      <c r="BB30" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="B31" s="2">
-        <v>125000000</v>
+        <v>23750000</v>
       </c>
       <c r="C31" s="2">
-        <v>37500</v>
+        <v>7500</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F31" s="2">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J31" s="2"/>
-      <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
-      <c r="AD31" s="2"/>
-      <c r="AE31" s="2"/>
-      <c r="AF31" s="2"/>
-      <c r="AG31" s="2"/>
-      <c r="AH31" s="2"/>
       <c r="AJ31" s="2">
         <v>1</v>
       </c>
-      <c r="AK31" s="2"/>
+      <c r="AL31" s="2"/>
       <c r="AM31" s="2">
         <v>1</v>
       </c>
-      <c r="AP31" s="2">
-        <v>1</v>
-      </c>
-      <c r="AZ31" s="2">
+      <c r="AO31" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV31" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX31" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY31" s="2">
         <v>1</v>
       </c>
       <c r="BA31" s="2">
@@ -2533,51 +2513,75 @@
       <c r="BB31" s="2">
         <v>1</v>
       </c>
-      <c r="BG31" s="2">
+      <c r="BE31" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="B32" s="2">
-        <v>2875000000</v>
+        <v>65000000</v>
       </c>
       <c r="C32" s="2">
-        <v>562500</v>
-      </c>
+        <v>18750</v>
+      </c>
+      <c r="D32" s="2"/>
       <c r="E32" s="2">
-        <v>1.55</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="F32" s="2">
-        <v>1.55</v>
-      </c>
-      <c r="Y32" s="2"/>
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="AF32" s="2"/>
       <c r="AJ32" s="2">
         <v>1</v>
       </c>
-      <c r="BF32" s="2"/>
+      <c r="AM32" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO32" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV32" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX32" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY32" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA32" s="2">
+        <v>1</v>
+      </c>
+      <c r="BB32" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="B33" s="2">
-        <v>3750000000</v>
+        <v>120000000</v>
       </c>
       <c r="C33" s="2">
-        <v>375000</v>
-      </c>
-      <c r="D33" s="2">
-        <v>1.08</v>
-      </c>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="T33" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="AG33" s="2">
+        <v>35000</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2">
+        <v>1.18</v>
+      </c>
+      <c r="F33" s="2">
+        <v>1.18</v>
+      </c>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="AF33" s="2">
         <v>1</v>
       </c>
       <c r="AJ33" s="2">
@@ -2586,130 +2590,132 @@
       <c r="AM33" s="2">
         <v>1</v>
       </c>
-      <c r="AN33" s="2">
-        <v>1</v>
-      </c>
-      <c r="AO33" s="2"/>
-      <c r="AV33" s="2"/>
-      <c r="AX33" s="2"/>
-      <c r="AY33" s="2"/>
-      <c r="BA33" s="2"/>
-      <c r="BB33" s="2"/>
-      <c r="BE33" s="2"/>
+      <c r="AO33" s="2">
+        <v>1</v>
+      </c>
+      <c r="AP33" s="2"/>
+      <c r="AQ33" s="2"/>
+      <c r="BA33" s="2">
+        <v>1</v>
+      </c>
+      <c r="BB33" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="34" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>129</v>
+        <v>87</v>
       </c>
       <c r="B34" s="2">
-        <v>4500000000</v>
+        <v>250000000</v>
       </c>
       <c r="C34" s="2">
-        <v>500000</v>
+        <v>15000</v>
       </c>
       <c r="D34" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="T34" s="2">
-        <v>1.75</v>
-      </c>
+        <v>1.08</v>
+      </c>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
       <c r="AG34" s="2">
         <v>1</v>
       </c>
+      <c r="AH34" s="2">
+        <v>1</v>
+      </c>
       <c r="AJ34" s="2">
         <v>1</v>
       </c>
-      <c r="AM34" s="2"/>
-      <c r="AO34" s="2"/>
+      <c r="AK34" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN34" s="2"/>
       <c r="AP34" s="2">
         <v>1</v>
       </c>
-      <c r="AV34" s="2"/>
-      <c r="AX34" s="2"/>
-      <c r="AY34" s="2"/>
-      <c r="BA34" s="2"/>
-      <c r="BB34" s="2"/>
+      <c r="AQ34" s="2">
+        <v>1</v>
+      </c>
+      <c r="AR34" s="2">
+        <v>1</v>
+      </c>
+      <c r="AS34" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="B35" s="2">
-        <v>1125000000</v>
+        <v>2750000000</v>
       </c>
       <c r="C35" s="2">
-        <v>437500</v>
-      </c>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="F35" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="J35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-      <c r="AD35" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE35" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF35" s="2">
-        <v>1</v>
+        <v>150000</v>
+      </c>
+      <c r="G35" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>1.03</v>
+      </c>
+      <c r="R35" s="2">
+        <v>1.1000000000000001</v>
       </c>
       <c r="AJ35" s="2">
         <v>1</v>
       </c>
-      <c r="AK35" s="2">
-        <v>1</v>
-      </c>
       <c r="AO35" s="2">
         <v>1</v>
       </c>
-      <c r="AP35" s="2">
-        <v>1</v>
-      </c>
-      <c r="AQ35" s="2"/>
-      <c r="AZ35" s="2">
-        <v>1</v>
-      </c>
+      <c r="BH35" s="2"/>
     </row>
     <row r="36" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="B36" s="2">
-        <v>17500000</v>
+        <v>125000000</v>
       </c>
       <c r="C36" s="2">
-        <v>3750</v>
-      </c>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="T36" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="U36" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AH36" s="2">
-        <v>1</v>
-      </c>
-      <c r="AJ36" s="2"/>
-      <c r="AK36" s="2">
-        <v>1</v>
-      </c>
-      <c r="AM36" s="2"/>
-      <c r="AN36" s="2">
-        <v>1</v>
-      </c>
-      <c r="AP36" s="2"/>
-      <c r="AZ36" s="2"/>
-      <c r="BA36" s="2"/>
+        <v>37500</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="F36" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="J36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="AD36" s="2"/>
+      <c r="AE36" s="2"/>
+      <c r="AF36" s="2"/>
+      <c r="AG36" s="2"/>
+      <c r="AH36" s="2"/>
+      <c r="AJ36" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK36" s="2"/>
+      <c r="AM36" s="2">
+        <v>1</v>
+      </c>
+      <c r="AP36" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ36" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA36" s="2">
+        <v>1</v>
+      </c>
       <c r="BB36" s="2">
         <v>1</v>
       </c>
@@ -2719,788 +2725,829 @@
     </row>
     <row r="37" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="B37" s="2">
-        <v>550000000</v>
+        <v>2875000000</v>
       </c>
       <c r="C37" s="2">
-        <v>62500</v>
-      </c>
-      <c r="F37" s="2"/>
-      <c r="T37" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="U37" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="AD37" s="2"/>
-      <c r="AE37" s="2"/>
-      <c r="AF37" s="2"/>
-      <c r="AI37" s="2">
-        <v>1</v>
-      </c>
-      <c r="AL37" s="2">
-        <v>1</v>
-      </c>
-      <c r="AN37" s="2">
-        <v>1</v>
-      </c>
-      <c r="AP37" s="2"/>
-      <c r="BB37" s="2"/>
-      <c r="BC37" s="2">
-        <v>1</v>
-      </c>
+        <v>562500</v>
+      </c>
+      <c r="E37" s="2">
+        <v>1.55</v>
+      </c>
+      <c r="F37" s="2">
+        <v>1.55</v>
+      </c>
+      <c r="Y37" s="2"/>
+      <c r="AJ37" s="2">
+        <v>1</v>
+      </c>
+      <c r="BF37" s="2"/>
     </row>
     <row r="38" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>62</v>
+        <v>127</v>
       </c>
       <c r="B38" s="2">
-        <v>3000000000</v>
+        <v>3750000000</v>
       </c>
       <c r="C38" s="2">
-        <v>275000</v>
+        <v>375000</v>
       </c>
       <c r="D38" s="2">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2">
-        <v>1.03</v>
-      </c>
-      <c r="R38" s="2">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="AP38" s="2">
-        <v>1</v>
-      </c>
-      <c r="AQ38" s="2">
-        <v>1</v>
-      </c>
-      <c r="AS38" s="2"/>
-      <c r="BH38" s="2"/>
+        <v>1.08</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="T38" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="AG38" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ38" s="2">
+        <v>1</v>
+      </c>
+      <c r="AM38" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN38" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO38" s="2"/>
+      <c r="AV38" s="2"/>
+      <c r="AX38" s="2"/>
+      <c r="AY38" s="2"/>
+      <c r="BA38" s="2"/>
+      <c r="BB38" s="2"/>
+      <c r="BE38" s="2"/>
     </row>
     <row r="39" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>67</v>
+        <v>129</v>
       </c>
       <c r="B39" s="2">
-        <v>275000000</v>
+        <v>4500000000</v>
       </c>
       <c r="C39" s="2">
-        <v>62500</v>
-      </c>
-      <c r="E39" s="2">
-        <v>1.3</v>
-      </c>
+        <v>500000</v>
+      </c>
+      <c r="D39" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E39" s="2"/>
       <c r="F39" s="2"/>
-      <c r="G39" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="V39" s="2"/>
-      <c r="W39" s="2"/>
+      <c r="T39" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="AG39" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ39" s="2">
+        <v>1</v>
+      </c>
+      <c r="AM39" s="2"/>
+      <c r="AO39" s="2"/>
+      <c r="AP39" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV39" s="2"/>
+      <c r="AX39" s="2"/>
+      <c r="AY39" s="2"/>
+      <c r="BA39" s="2"/>
       <c r="BB39" s="2"/>
-      <c r="BD39" s="2">
-        <v>1</v>
-      </c>
     </row>
     <row r="40" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>71</v>
+        <v>140</v>
       </c>
       <c r="B40" s="2">
-        <v>10000000</v>
+        <v>1125000000</v>
       </c>
       <c r="C40" s="2">
-        <v>3750</v>
-      </c>
-      <c r="D40" s="2">
-        <v>1.05</v>
+        <v>437500</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="F40" s="2">
+        <v>1.3</v>
       </c>
       <c r="J40" s="2"/>
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
-      <c r="R40" s="2"/>
-      <c r="AG40" s="2"/>
-      <c r="AH40" s="2"/>
-      <c r="AJ40" s="2"/>
-      <c r="AK40" s="2"/>
-      <c r="AP40" s="2"/>
+      <c r="AD40" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE40" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF40" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ40" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK40" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO40" s="2">
+        <v>1</v>
+      </c>
+      <c r="AP40" s="2">
+        <v>1</v>
+      </c>
       <c r="AQ40" s="2"/>
-      <c r="AR40" s="2"/>
-      <c r="AS40" s="2">
-        <v>1</v>
-      </c>
-      <c r="BH40" s="2">
+      <c r="AZ40" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="B41" s="2">
-        <v>90000000</v>
+        <v>17500000</v>
       </c>
       <c r="C41" s="2">
-        <v>12500</v>
-      </c>
-      <c r="E41" s="2">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="F41" s="2">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="G41" s="2"/>
-      <c r="V41" s="2">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="W41" s="2">
-        <v>1.1000000000000001</v>
-      </c>
+        <v>3750</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="T41" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="U41" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AH41" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ41" s="2"/>
+      <c r="AK41" s="2">
+        <v>1</v>
+      </c>
+      <c r="AM41" s="2"/>
+      <c r="AN41" s="2">
+        <v>1</v>
+      </c>
+      <c r="AP41" s="2"/>
+      <c r="AZ41" s="2"/>
       <c r="BA41" s="2"/>
       <c r="BB41" s="2">
         <v>1</v>
       </c>
+      <c r="BG41" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="42" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B42" s="2">
-        <v>125000000</v>
+        <v>3000000000</v>
       </c>
       <c r="C42" s="2">
-        <v>12500</v>
-      </c>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="AO42" s="2"/>
-      <c r="AX42" s="2">
-        <v>1</v>
-      </c>
+        <v>275000</v>
+      </c>
+      <c r="D42" s="2">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2">
+        <v>1.03</v>
+      </c>
+      <c r="R42" s="2">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="AP42" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ42" s="2">
+        <v>1</v>
+      </c>
+      <c r="AS42" s="2"/>
+      <c r="BH42" s="2"/>
     </row>
     <row r="43" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B43" s="2">
-        <v>5000000000</v>
+        <v>275000000</v>
       </c>
       <c r="C43" s="2">
-        <v>1125000</v>
+        <v>62500</v>
       </c>
       <c r="E43" s="2">
-        <v>1.35</v>
-      </c>
-      <c r="F43" s="2">
-        <v>1.35</v>
-      </c>
+        <v>1.3</v>
+      </c>
+      <c r="F43" s="2"/>
       <c r="G43" s="2">
-        <v>1.35</v>
-      </c>
-      <c r="H43" s="2">
-        <v>1.35</v>
-      </c>
-      <c r="K43" s="2">
-        <v>1.35</v>
-      </c>
-      <c r="L43" s="2">
-        <v>1.35</v>
-      </c>
-      <c r="M43" s="2">
-        <v>1.35</v>
-      </c>
-      <c r="N43" s="2">
-        <v>1.35</v>
-      </c>
-      <c r="Y43" s="2"/>
-      <c r="Z43" s="2"/>
-      <c r="AH43" s="2">
-        <v>1</v>
-      </c>
-      <c r="BF43" s="2"/>
+        <v>1.3</v>
+      </c>
+      <c r="V43" s="2"/>
+      <c r="W43" s="2"/>
+      <c r="BB43" s="2"/>
+      <c r="BD43" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="44" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B44" s="2">
-        <v>70000000</v>
+        <v>10000000</v>
       </c>
       <c r="C44" s="2">
-        <v>10000</v>
+        <v>3750</v>
       </c>
       <c r="D44" s="2">
         <v>1.05</v>
       </c>
-      <c r="Q44" s="2">
-        <v>1.01</v>
-      </c>
-      <c r="T44" s="2"/>
-      <c r="U44" s="2"/>
-      <c r="AZ44" s="2"/>
-      <c r="BA44" s="2"/>
-      <c r="BB44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="AG44" s="2"/>
+      <c r="AH44" s="2"/>
+      <c r="AJ44" s="2"/>
+      <c r="AK44" s="2"/>
+      <c r="AP44" s="2"/>
+      <c r="AQ44" s="2"/>
+      <c r="AR44" s="2"/>
+      <c r="AS44" s="2">
+        <v>1</v>
+      </c>
       <c r="BH44" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B45" s="2">
-        <v>125000000</v>
+        <v>90000000</v>
       </c>
       <c r="C45" s="2">
-        <v>18750</v>
-      </c>
-      <c r="D45" s="2">
-        <v>1.07</v>
-      </c>
-      <c r="P45" s="2">
-        <v>1.05</v>
-      </c>
-      <c r="Q45" s="2">
-        <v>1.02</v>
-      </c>
-      <c r="T45" s="2"/>
-      <c r="U45" s="2"/>
-      <c r="X45" s="2"/>
-      <c r="AS45" s="2">
-        <v>1</v>
-      </c>
-      <c r="BG45" s="2"/>
-      <c r="BH45" s="2">
+        <v>12500</v>
+      </c>
+      <c r="E45" s="2">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F45" s="2">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G45" s="2"/>
+      <c r="V45" s="2">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="W45" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="BA45" s="2"/>
+      <c r="BB45" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B46" s="2">
-        <v>550000000</v>
+        <v>125000000</v>
       </c>
       <c r="C46" s="2">
-        <v>50000</v>
-      </c>
-      <c r="D46" s="2">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="Q46" s="2">
-        <v>1.02</v>
-      </c>
-      <c r="R46" s="2">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="T46" s="2"/>
-      <c r="U46" s="2"/>
-      <c r="AH46" s="2"/>
-      <c r="AK46" s="2"/>
-      <c r="AN46" s="2"/>
-      <c r="AQ46" s="2">
-        <v>1</v>
-      </c>
-      <c r="AR46" s="2">
-        <v>1</v>
-      </c>
-      <c r="AS46" s="2">
-        <v>1</v>
-      </c>
-      <c r="BB46" s="2"/>
-      <c r="BG46" s="2"/>
+        <v>12500</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="AO46" s="2"/>
+      <c r="AX46" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="47" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B47" s="2">
-        <v>1100000000</v>
+        <v>5000000000</v>
       </c>
       <c r="C47" s="2">
-        <v>125000</v>
-      </c>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="Q47" s="2">
-        <v>1.02</v>
-      </c>
-      <c r="R47" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="S47" s="2">
-        <v>1.25</v>
-      </c>
-      <c r="AQ47" s="2">
-        <v>1</v>
-      </c>
-      <c r="AR47" s="2">
-        <v>1</v>
-      </c>
-      <c r="BA47" s="2"/>
-      <c r="BB47" s="2"/>
-      <c r="BD47" s="2"/>
+        <v>1125000</v>
+      </c>
+      <c r="E47" s="2">
+        <v>1.35</v>
+      </c>
+      <c r="F47" s="2">
+        <v>1.35</v>
+      </c>
+      <c r="G47" s="2">
+        <v>1.35</v>
+      </c>
+      <c r="H47" s="2">
+        <v>1.35</v>
+      </c>
+      <c r="K47" s="2">
+        <v>1.35</v>
+      </c>
+      <c r="L47" s="2">
+        <v>1.35</v>
+      </c>
+      <c r="M47" s="2">
+        <v>1.35</v>
+      </c>
+      <c r="N47" s="2">
+        <v>1.35</v>
+      </c>
+      <c r="Y47" s="2"/>
+      <c r="Z47" s="2"/>
+      <c r="AH47" s="2">
+        <v>1</v>
+      </c>
+      <c r="BF47" s="2"/>
     </row>
     <row r="48" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B48" s="2">
-        <v>2250000000</v>
+        <v>70000000</v>
       </c>
       <c r="C48" s="2">
-        <v>250000</v>
+        <v>10000</v>
       </c>
       <c r="D48" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="G48" s="2"/>
-      <c r="R48" s="2">
-        <v>1.25</v>
-      </c>
-      <c r="S48" s="2">
-        <v>1.75</v>
-      </c>
-      <c r="AJ48" s="2"/>
-      <c r="AM48" s="2"/>
-      <c r="AO48" s="2"/>
-      <c r="AQ48" s="2">
-        <v>1</v>
-      </c>
-      <c r="AV48" s="2"/>
-      <c r="AX48" s="2"/>
-      <c r="AY48" s="2"/>
+        <v>1.05</v>
+      </c>
+      <c r="Q48" s="2">
+        <v>1.01</v>
+      </c>
+      <c r="T48" s="2"/>
+      <c r="U48" s="2"/>
+      <c r="AZ48" s="2"/>
       <c r="BA48" s="2"/>
       <c r="BB48" s="2"/>
-      <c r="BE48" s="2"/>
-    </row>
-    <row r="49" spans="1:58" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="BH48" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B49" s="2">
+        <v>125000000</v>
+      </c>
+      <c r="C49" s="2">
+        <v>18750</v>
+      </c>
+      <c r="D49" s="2">
+        <v>1.07</v>
+      </c>
+      <c r="P49" s="2">
+        <v>1.05</v>
+      </c>
+      <c r="Q49" s="2">
+        <v>1.02</v>
+      </c>
+      <c r="T49" s="2"/>
+      <c r="U49" s="2"/>
+      <c r="X49" s="2"/>
+      <c r="AS49" s="2">
+        <v>1</v>
+      </c>
+      <c r="BG49" s="2"/>
+      <c r="BH49" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B50" s="2">
+        <v>550000000</v>
+      </c>
+      <c r="C50" s="2">
+        <v>50000</v>
+      </c>
+      <c r="D50" s="2">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="Q50" s="2">
+        <v>1.02</v>
+      </c>
+      <c r="R50" s="2">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="T50" s="2"/>
+      <c r="U50" s="2"/>
+      <c r="AH50" s="2"/>
+      <c r="AK50" s="2"/>
+      <c r="AN50" s="2"/>
+      <c r="AQ50" s="2">
+        <v>1</v>
+      </c>
+      <c r="AR50" s="2">
+        <v>1</v>
+      </c>
+      <c r="AS50" s="2">
+        <v>1</v>
+      </c>
+      <c r="BB50" s="2"/>
+      <c r="BG50" s="2"/>
+    </row>
+    <row r="51" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B51" s="2">
+        <v>1100000000</v>
+      </c>
+      <c r="C51" s="2">
+        <v>125000</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="Q51" s="2">
+        <v>1.02</v>
+      </c>
+      <c r="R51" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="S51" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="AQ51" s="2">
+        <v>1</v>
+      </c>
+      <c r="AR51" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA51" s="2"/>
+      <c r="BB51" s="2"/>
+      <c r="BD51" s="2"/>
+    </row>
+    <row r="52" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B52" s="2">
+        <v>2250000000</v>
+      </c>
+      <c r="C52" s="2">
+        <v>250000</v>
+      </c>
+      <c r="D52" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="G52" s="2"/>
+      <c r="R52" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="S52" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="AJ52" s="2"/>
+      <c r="AM52" s="2"/>
+      <c r="AO52" s="2"/>
+      <c r="AQ52" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV52" s="2"/>
+      <c r="AX52" s="2"/>
+      <c r="AY52" s="2"/>
+      <c r="BA52" s="2"/>
+      <c r="BB52" s="2"/>
+      <c r="BE52" s="2"/>
+    </row>
+    <row r="53" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B53" s="2">
         <v>450000000</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C53" s="2">
         <v>112500</v>
       </c>
-      <c r="J49" s="2"/>
-      <c r="R49" s="2">
+      <c r="J53" s="2"/>
+      <c r="R53" s="2">
         <v>1.25</v>
       </c>
-      <c r="AQ49" s="2">
-        <v>1</v>
-      </c>
-      <c r="AR49" s="2">
-        <v>1</v>
-      </c>
-      <c r="AS49" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU49" s="2">
-        <v>1</v>
-      </c>
-      <c r="AW49" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:58" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+      <c r="AQ53" s="2">
+        <v>1</v>
+      </c>
+      <c r="AR53" s="2">
+        <v>1</v>
+      </c>
+      <c r="AS53" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU53" s="2">
+        <v>1</v>
+      </c>
+      <c r="AW53" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B54" s="2">
         <v>50000000</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C54" s="2">
         <v>15000</v>
       </c>
-      <c r="F50" s="2">
+      <c r="F54" s="2">
         <v>1.4</v>
       </c>
-      <c r="G50" s="2"/>
-      <c r="V50" s="2"/>
-      <c r="W50" s="2"/>
-      <c r="AV50" s="2"/>
-      <c r="AY50" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:58" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+      <c r="G54" s="2"/>
+      <c r="V54" s="2"/>
+      <c r="W54" s="2"/>
+      <c r="AV54" s="2"/>
+      <c r="AY54" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B55" s="2">
         <v>5500000000</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C55" s="2">
         <v>1500000</v>
       </c>
-      <c r="S51" s="2">
+      <c r="S55" s="2">
         <v>3</v>
       </c>
-      <c r="Y51" s="2"/>
-      <c r="AC51" s="2"/>
-      <c r="AG51" s="2">
-        <v>1</v>
-      </c>
-      <c r="BF51" s="2"/>
-    </row>
-    <row r="52" spans="1:58" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+      <c r="Y55" s="2"/>
+      <c r="AC55" s="2"/>
+      <c r="AG55" s="2">
+        <v>1</v>
+      </c>
+      <c r="BF55" s="2"/>
+    </row>
+    <row r="56" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B56" s="2">
         <v>6000000000</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C56" s="2">
         <v>625000</v>
       </c>
-      <c r="J52" s="2"/>
-      <c r="P52" s="2"/>
-      <c r="Q52" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AD52" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE52" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF52" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG52" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH52" s="2">
-        <v>1</v>
-      </c>
-      <c r="AK52" s="2">
-        <v>1</v>
-      </c>
-      <c r="AP52" s="2">
-        <v>1</v>
-      </c>
-      <c r="AR52" s="2"/>
-      <c r="AS52" s="2"/>
-    </row>
-    <row r="53" spans="1:58" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
+      <c r="J56" s="2"/>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AD56" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE56" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF56" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG56" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH56" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK56" s="2">
+        <v>1</v>
+      </c>
+      <c r="AP56" s="2">
+        <v>1</v>
+      </c>
+      <c r="AR56" s="2"/>
+      <c r="AS56" s="2"/>
+    </row>
+    <row r="57" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B57" s="2">
         <v>7000000000</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C57" s="2">
         <v>1000000</v>
       </c>
-      <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
-      <c r="P53" s="2">
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" s="2">
         <v>1.2</v>
       </c>
-      <c r="R53" s="2">
+      <c r="R57" s="2">
         <v>1.4</v>
       </c>
-      <c r="T53" s="2"/>
-      <c r="X53" s="2"/>
-      <c r="AD53" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE53" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF53" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG53" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH53" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI53" s="2"/>
-      <c r="AK53" s="2">
-        <v>1</v>
-      </c>
-      <c r="AL53" s="2"/>
-      <c r="AN53" s="2"/>
-      <c r="AO53" s="2"/>
-      <c r="AP53" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:58" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B54" s="2">
-        <v>1375000000</v>
-      </c>
-      <c r="C54" s="2">
-        <v>375000</v>
-      </c>
-      <c r="D54" s="2"/>
-      <c r="I54" s="2">
+      <c r="T57" s="2"/>
+      <c r="X57" s="2"/>
+      <c r="AD57" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE57" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF57" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG57" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH57" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI57" s="2"/>
+      <c r="AK57" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL57" s="2"/>
+      <c r="AN57" s="2"/>
+      <c r="AO57" s="2"/>
+      <c r="AP57" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B58" s="2">
+        <v>3750000000</v>
+      </c>
+      <c r="C58" s="2">
+        <v>500000</v>
+      </c>
+      <c r="E58" s="2">
+        <v>1.85</v>
+      </c>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2">
+        <v>1.85</v>
+      </c>
+      <c r="V58" s="2"/>
+      <c r="W58" s="2"/>
+      <c r="AZ58" s="2"/>
+      <c r="BA58" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B59" s="2">
+        <v>4500000000</v>
+      </c>
+      <c r="C59" s="2">
+        <v>750000</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="H59" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="J59" s="2"/>
+      <c r="AG59" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH59" s="2">
+        <v>1</v>
+      </c>
+      <c r="AP59" s="2">
+        <v>1</v>
+      </c>
+      <c r="AS59" s="2"/>
+    </row>
+    <row r="60" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B60" s="2">
+        <v>6000000000</v>
+      </c>
+      <c r="C60" s="2">
+        <v>1625000</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2">
         <v>1.6</v>
       </c>
-      <c r="O54" s="2">
+      <c r="F60" s="2">
         <v>1.6</v>
       </c>
-      <c r="T54" s="2"/>
-      <c r="AG54" s="2"/>
-      <c r="AI54" s="2">
-        <v>1</v>
-      </c>
-      <c r="AJ54" s="2"/>
-      <c r="AK54" s="2">
-        <v>1</v>
-      </c>
-      <c r="AL54" s="2">
-        <v>1</v>
-      </c>
-      <c r="AM54" s="2">
-        <v>1</v>
-      </c>
-      <c r="AN54" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:58" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B55" s="2">
-        <v>3750000000</v>
-      </c>
-      <c r="C55" s="2">
-        <v>500000</v>
-      </c>
-      <c r="E55" s="2">
-        <v>1.85</v>
-      </c>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2">
-        <v>1.85</v>
-      </c>
-      <c r="V55" s="2"/>
-      <c r="W55" s="2"/>
-      <c r="AZ55" s="2"/>
-      <c r="BA55" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:58" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B56" s="2">
-        <v>4500000000</v>
-      </c>
-      <c r="C56" s="2">
-        <v>750000</v>
-      </c>
-      <c r="D56" s="2"/>
-      <c r="H56" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="J56" s="2"/>
-      <c r="AG56" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH56" s="2">
-        <v>1</v>
-      </c>
-      <c r="AP56" s="2">
-        <v>1</v>
-      </c>
-      <c r="AS56" s="2"/>
-    </row>
-    <row r="57" spans="1:58" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B57" s="2">
-        <v>6000000000</v>
-      </c>
-      <c r="C57" s="2">
-        <v>1625000</v>
-      </c>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2">
+      <c r="G60" s="2">
         <v>1.6</v>
       </c>
-      <c r="F57" s="2">
+      <c r="H60" s="2">
         <v>1.6</v>
       </c>
-      <c r="G57" s="2">
-        <v>1.6</v>
-      </c>
-      <c r="H57" s="2">
-        <v>1.6</v>
-      </c>
-      <c r="Q57" s="2"/>
-      <c r="R57" s="2"/>
-      <c r="AG57" s="2">
-        <v>1</v>
-      </c>
-      <c r="AP57" s="2">
-        <v>1</v>
-      </c>
-      <c r="AQ57" s="2"/>
-      <c r="AR57" s="2"/>
-      <c r="AS57" s="2"/>
-    </row>
-    <row r="58" spans="1:58" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
+      <c r="Q60" s="2"/>
+      <c r="R60" s="2"/>
+      <c r="AG60" s="2">
+        <v>1</v>
+      </c>
+      <c r="AP60" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ60" s="2"/>
+      <c r="AR60" s="2"/>
+      <c r="AS60" s="2"/>
+    </row>
+    <row r="61" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B61" s="2">
         <v>4250000000</v>
       </c>
-      <c r="C58" s="2">
+      <c r="C61" s="2">
         <v>1125000</v>
       </c>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2">
+      <c r="D61" s="2"/>
+      <c r="E61" s="2">
         <v>1.7</v>
       </c>
-      <c r="F58" s="2">
+      <c r="F61" s="2">
         <v>1.7</v>
       </c>
-      <c r="Q58" s="2"/>
-      <c r="T58" s="2"/>
-      <c r="AF58" s="2">
-        <v>1</v>
-      </c>
-      <c r="AP58" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:58" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
+      <c r="Q61" s="2"/>
+      <c r="T61" s="2"/>
+      <c r="AF61" s="2">
+        <v>1</v>
+      </c>
+      <c r="AP61" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B62" s="2">
         <v>2500000000</v>
       </c>
-      <c r="C59" s="2">
+      <c r="C62" s="2">
         <v>225000</v>
       </c>
-      <c r="E59" s="2">
+      <c r="E62" s="2">
         <v>1.4</v>
       </c>
-      <c r="F59" s="2">
+      <c r="F62" s="2">
         <v>1.4</v>
       </c>
-      <c r="V59" s="2">
+      <c r="V62" s="2">
         <v>1.3</v>
       </c>
-      <c r="W59" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AY59" s="2"/>
-      <c r="AZ59" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:58" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
+      <c r="W62" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AY62" s="2"/>
+      <c r="AZ62" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B63" s="2">
         <v>5500000</v>
       </c>
-      <c r="C60" s="2">
+      <c r="C63" s="2">
         <v>2500</v>
       </c>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="Y60" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AC60" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="AJ60" s="2"/>
-      <c r="AM60" s="2"/>
-      <c r="AO60" s="2"/>
-      <c r="AZ60" s="2"/>
-      <c r="BB60" s="2"/>
-      <c r="BF60" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:58" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B61" s="2">
-        <v>60000000</v>
-      </c>
-      <c r="C61" s="2">
-        <v>12500</v>
-      </c>
-      <c r="H61" s="2"/>
-      <c r="Y61" s="2">
-        <v>1.45</v>
-      </c>
-      <c r="AG61" s="2"/>
-      <c r="AH61" s="2"/>
-      <c r="AP61" s="2"/>
-      <c r="BF61" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:58" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B62" s="2">
-        <v>11000000</v>
-      </c>
-      <c r="C62" s="2">
-        <v>3750</v>
-      </c>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="Y62" s="2">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="Z62" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="AF62" s="2"/>
-      <c r="AP62" s="2"/>
-      <c r="BF62" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:58" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B63" s="2">
-        <v>40000000</v>
-      </c>
-      <c r="C63" s="2">
-        <v>7500</v>
-      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
       <c r="H63" s="2"/>
       <c r="Y63" s="2">
-        <v>1.25</v>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AC63" s="2">
+        <v>0.85</v>
       </c>
       <c r="AJ63" s="2"/>
       <c r="AM63" s="2"/>
@@ -3511,27 +3558,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:58" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:60" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B64" s="2">
-        <v>4500000</v>
+        <v>60000000</v>
       </c>
       <c r="C64" s="2">
-        <v>1875</v>
-      </c>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
+        <v>12500</v>
+      </c>
       <c r="H64" s="2"/>
       <c r="Y64" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="Z64" s="2">
-        <v>0.9</v>
+        <v>1.45</v>
       </c>
       <c r="AG64" s="2"/>
+      <c r="AH64" s="2"/>
       <c r="AP64" s="2"/>
       <c r="BF64" s="2">
         <v>1</v>
@@ -3539,494 +3581,452 @@
     </row>
     <row r="65" spans="1:59" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B65" s="2">
-        <v>45000000</v>
+        <v>11000000</v>
       </c>
       <c r="C65" s="2">
-        <v>10000</v>
-      </c>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2">
-        <v>1.08</v>
-      </c>
-      <c r="F65" s="2">
-        <v>1.08</v>
-      </c>
-      <c r="G65" s="2">
-        <v>1.08</v>
-      </c>
-      <c r="H65" s="2">
-        <v>1.08</v>
-      </c>
-      <c r="P65" s="2"/>
-      <c r="Q65" s="2"/>
-      <c r="R65" s="2"/>
-      <c r="AD65" s="2"/>
-      <c r="BA65" s="2">
-        <v>1</v>
-      </c>
-      <c r="BB65" s="2">
-        <v>1</v>
-      </c>
-      <c r="BD65" s="2">
+        <v>3750</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="Y65" s="2">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="Z65" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="AF65" s="2"/>
+      <c r="AP65" s="2"/>
+      <c r="BF65" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:59" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
+      </c>
+      <c r="B66" s="2">
+        <v>40000000</v>
+      </c>
+      <c r="C66" s="2">
+        <v>7500</v>
+      </c>
+      <c r="H66" s="2"/>
+      <c r="Y66" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="AJ66" s="2"/>
+      <c r="AM66" s="2"/>
+      <c r="AO66" s="2"/>
+      <c r="AZ66" s="2"/>
+      <c r="BB66" s="2"/>
+      <c r="BF66" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:59" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B67" s="2">
-        <v>30000000</v>
+        <v>4500000</v>
       </c>
       <c r="C67" s="2">
-        <v>7500</v>
-      </c>
-      <c r="G67" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="K67" s="2"/>
-      <c r="L67" s="2"/>
-      <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
-      <c r="V67" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="W67" s="2">
-        <v>1.25</v>
-      </c>
-      <c r="AV67" s="2">
-        <v>1</v>
-      </c>
-      <c r="AW67" s="2"/>
+        <v>1875</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="Y67" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Z67" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="AG67" s="2"/>
+      <c r="AP67" s="2"/>
+      <c r="BF67" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="68" spans="1:59" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B68" s="2">
-        <v>5000000</v>
+        <v>45000000</v>
       </c>
       <c r="C68" s="2">
-        <v>1500</v>
+        <v>10000</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2">
+        <v>1.08</v>
+      </c>
+      <c r="F68" s="2">
+        <v>1.08</v>
+      </c>
+      <c r="G68" s="2">
+        <v>1.08</v>
       </c>
       <c r="H68" s="2">
-        <v>1.05</v>
-      </c>
+        <v>1.08</v>
+      </c>
+      <c r="P68" s="2"/>
+      <c r="Q68" s="2"/>
       <c r="R68" s="2"/>
-      <c r="V68" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AQ68" s="2"/>
-      <c r="AR68" s="2"/>
-      <c r="AS68" s="2"/>
-      <c r="AU68" s="2"/>
-      <c r="AW68" s="2"/>
+      <c r="AD68" s="2"/>
+      <c r="BA68" s="2">
+        <v>1</v>
+      </c>
+      <c r="BB68" s="2">
+        <v>1</v>
+      </c>
       <c r="BD68" s="2">
-        <v>1</v>
-      </c>
-      <c r="BE68" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:59" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B69" s="2">
-        <v>30000000</v>
-      </c>
-      <c r="C69" s="2">
-        <v>5000</v>
-      </c>
-      <c r="F69" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H69" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="Q69" s="2"/>
-      <c r="V69" s="2">
-        <v>1.25</v>
-      </c>
-      <c r="AD69" s="2"/>
-      <c r="AE69" s="2"/>
-      <c r="AF69" s="2"/>
-      <c r="AG69" s="2"/>
-      <c r="AH69" s="2"/>
-      <c r="AK69" s="2"/>
-      <c r="AP69" s="2"/>
-      <c r="BD69" s="2">
-        <v>1</v>
-      </c>
-      <c r="BE69" s="2">
-        <v>1</v>
+        <v>107</v>
       </c>
     </row>
     <row r="70" spans="1:59" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B70" s="2">
-        <v>3250000000</v>
+        <v>30000000</v>
       </c>
       <c r="C70" s="2">
-        <v>875000</v>
-      </c>
-      <c r="D70" s="2"/>
-      <c r="F70" s="2">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="J70" s="2"/>
-      <c r="R70" s="2"/>
-      <c r="AD70" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE70" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF70" s="2">
-        <v>1</v>
-      </c>
-      <c r="AP70" s="2">
-        <v>1</v>
-      </c>
-      <c r="AQ70" s="2"/>
-      <c r="BB70" s="2">
-        <v>1</v>
-      </c>
+        <v>7500</v>
+      </c>
+      <c r="G70" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K70" s="2"/>
+      <c r="L70" s="2"/>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="V70" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="W70" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="AV70" s="2">
+        <v>1</v>
+      </c>
+      <c r="AW70" s="2"/>
     </row>
     <row r="71" spans="1:59" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="B71" s="2">
-        <v>1925000000</v>
+        <v>5000000</v>
       </c>
       <c r="C71" s="2">
-        <v>437500</v>
-      </c>
-      <c r="D71" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="E71" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="F71" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="G71" s="2">
-        <v>1.2</v>
+        <v>1500</v>
       </c>
       <c r="H71" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="I71" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="V71" s="2"/>
-      <c r="AL71" s="2">
-        <v>1</v>
-      </c>
-      <c r="BD71" s="2"/>
-      <c r="BE71" s="2"/>
+        <v>1.05</v>
+      </c>
+      <c r="R71" s="2"/>
+      <c r="V71" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AQ71" s="2"/>
+      <c r="AR71" s="2"/>
+      <c r="AS71" s="2"/>
+      <c r="AU71" s="2"/>
+      <c r="AW71" s="2"/>
+      <c r="BD71" s="2">
+        <v>1</v>
+      </c>
+      <c r="BE71" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="72" spans="1:59" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="B72" s="2">
-        <v>20000000</v>
+        <v>30000000</v>
       </c>
       <c r="C72" s="2">
         <v>5000</v>
       </c>
-      <c r="G72" s="2"/>
-      <c r="T72" s="2">
-        <v>1.2</v>
-      </c>
+      <c r="F72" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H72" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q72" s="2"/>
+      <c r="V72" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="AD72" s="2"/>
+      <c r="AE72" s="2"/>
       <c r="AF72" s="2"/>
-      <c r="AI72" s="2">
-        <v>1</v>
-      </c>
-      <c r="AJ72" s="2"/>
-      <c r="AL72" s="2">
-        <v>1</v>
-      </c>
-      <c r="AM72" s="2"/>
-      <c r="AN72" s="2">
-        <v>1</v>
-      </c>
-      <c r="AO72" s="2"/>
-      <c r="AU72" s="2">
-        <v>1</v>
-      </c>
-      <c r="AV72" s="2">
-        <v>1</v>
-      </c>
-      <c r="AW72" s="2">
-        <v>1</v>
-      </c>
-      <c r="AY72" s="2">
-        <v>1</v>
-      </c>
-      <c r="BA72" s="2"/>
-      <c r="BB72" s="2"/>
-      <c r="BG72" s="2">
+      <c r="AG72" s="2"/>
+      <c r="AH72" s="2"/>
+      <c r="AK72" s="2"/>
+      <c r="AP72" s="2"/>
+      <c r="BD72" s="2">
+        <v>1</v>
+      </c>
+      <c r="BE72" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:59" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="B73" s="2">
-        <v>2500000</v>
+        <v>3250000000</v>
       </c>
       <c r="C73" s="2">
-        <v>6250</v>
-      </c>
-      <c r="K73" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="L73" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="M73" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="N73" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="AW73" s="2">
-        <v>1</v>
-      </c>
-      <c r="AX73" s="2"/>
+        <v>875000</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="F73" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J73" s="2"/>
+      <c r="R73" s="2"/>
+      <c r="AD73" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE73" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF73" s="2">
+        <v>1</v>
+      </c>
+      <c r="AP73" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ73" s="2"/>
+      <c r="BB73" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="74" spans="1:59" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B74" s="2">
-        <v>7500000000</v>
+        <v>1925000000</v>
       </c>
       <c r="C74" s="2">
-        <v>1500000</v>
+        <v>437500</v>
       </c>
       <c r="D74" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
-      <c r="Q74" s="2">
-        <v>1.05</v>
-      </c>
-      <c r="T74" s="2">
-        <v>2</v>
-      </c>
-      <c r="AF74" s="2"/>
-      <c r="AJ74" s="2"/>
-      <c r="AM74" s="2"/>
-      <c r="AO74" s="2"/>
-      <c r="AP74" s="2">
-        <v>1</v>
-      </c>
-      <c r="BA74" s="2"/>
-      <c r="BB74" s="2"/>
+        <v>1.2</v>
+      </c>
+      <c r="E74" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="F74" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="G74" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="H74" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="I74" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="V74" s="2"/>
+      <c r="AL74" s="2">
+        <v>1</v>
+      </c>
+      <c r="BD74" s="2"/>
+      <c r="BE74" s="2"/>
     </row>
     <row r="75" spans="1:59" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B75" s="2">
-        <v>2750000000</v>
+        <v>2500000</v>
       </c>
       <c r="C75" s="2">
-        <v>562500</v>
-      </c>
-      <c r="E75" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="F75" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="G75" s="2"/>
-      <c r="H75" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="M75" s="2"/>
-      <c r="V75" s="2"/>
-      <c r="AO75" s="2">
-        <v>1</v>
-      </c>
-      <c r="BE75" s="2"/>
+        <v>6250</v>
+      </c>
+      <c r="K75" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="L75" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="M75" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="N75" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="AW75" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX75" s="2"/>
     </row>
     <row r="76" spans="1:59" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B76" s="2">
-        <v>25000000000000</v>
+        <v>7500000000</v>
       </c>
       <c r="C76" s="2">
-        <v>1875000</v>
+        <v>1500000</v>
       </c>
       <c r="D76" s="2">
-        <v>1.75</v>
-      </c>
-      <c r="P76" s="2">
-        <v>2.5</v>
-      </c>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
       <c r="Q76" s="2">
+        <v>1.05</v>
+      </c>
+      <c r="T76" s="2">
         <v>2</v>
       </c>
-      <c r="R76" s="2">
-        <v>4</v>
-      </c>
-      <c r="T76" s="2"/>
-      <c r="AD76" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI76" s="2"/>
-      <c r="AL76" s="2"/>
-      <c r="AN76" s="2"/>
-      <c r="AU76" s="2"/>
-      <c r="AV76" s="2"/>
-      <c r="AW76" s="2"/>
-      <c r="AY76" s="2"/>
-      <c r="BG76" s="2"/>
+      <c r="AF76" s="2"/>
+      <c r="AJ76" s="2"/>
+      <c r="AM76" s="2"/>
+      <c r="AO76" s="2"/>
+      <c r="AP76" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA76" s="2"/>
+      <c r="BB76" s="2"/>
     </row>
     <row r="77" spans="1:59" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B77" s="2">
         <v>2750000000</v>
       </c>
       <c r="C77" s="2">
-        <v>375000</v>
-      </c>
-      <c r="I77" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="O77" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="T77" s="2">
-        <v>1.25</v>
-      </c>
-      <c r="U77" s="2">
-        <v>1.25</v>
-      </c>
-      <c r="Y77" s="2"/>
-      <c r="AI77" s="2">
-        <v>1</v>
-      </c>
-      <c r="BF77" s="2"/>
+        <v>562500</v>
+      </c>
+      <c r="E77" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="F77" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="M77" s="2"/>
+      <c r="V77" s="2"/>
+      <c r="AO77" s="2">
+        <v>1</v>
+      </c>
+      <c r="BE77" s="2"/>
     </row>
     <row r="78" spans="1:59" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B78" s="2">
-        <v>75000000</v>
+        <v>25000000000000</v>
       </c>
       <c r="C78" s="2">
-        <v>22500</v>
-      </c>
-      <c r="G78" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M78" s="2">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="P78" s="2"/>
-      <c r="R78" s="2"/>
-      <c r="V78" s="2">
-        <v>1.25</v>
-      </c>
-      <c r="AD78" s="2"/>
-      <c r="AE78" s="2"/>
-      <c r="AF78" s="2"/>
-      <c r="AG78" s="2"/>
-      <c r="AH78" s="2"/>
-      <c r="AK78" s="2"/>
-      <c r="AP78" s="2"/>
-      <c r="BE78" s="2">
-        <v>1</v>
-      </c>
+        <v>1875000</v>
+      </c>
+      <c r="D78" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="P78" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="Q78" s="2">
+        <v>2</v>
+      </c>
+      <c r="R78" s="2">
+        <v>4</v>
+      </c>
+      <c r="T78" s="2"/>
+      <c r="AD78" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI78" s="2"/>
+      <c r="AL78" s="2"/>
+      <c r="AN78" s="2"/>
+      <c r="AU78" s="2"/>
+      <c r="AV78" s="2"/>
+      <c r="AW78" s="2"/>
+      <c r="AY78" s="2"/>
+      <c r="BG78" s="2"/>
     </row>
     <row r="79" spans="1:59" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B79" s="2">
-        <v>30000000</v>
+        <v>75000000</v>
       </c>
       <c r="C79" s="2">
-        <v>6250</v>
-      </c>
-      <c r="E79" s="2"/>
-      <c r="G79" s="2"/>
-      <c r="T79" s="2">
+        <v>22500</v>
+      </c>
+      <c r="G79" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M79" s="2">
         <v>1.1499999999999999</v>
       </c>
-      <c r="U79" s="2">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="X79" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="BD79" s="2"/>
-      <c r="BG79" s="2">
+      <c r="P79" s="2"/>
+      <c r="R79" s="2"/>
+      <c r="V79" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="AD79" s="2"/>
+      <c r="AE79" s="2"/>
+      <c r="AF79" s="2"/>
+      <c r="AG79" s="2"/>
+      <c r="AH79" s="2"/>
+      <c r="AK79" s="2"/>
+      <c r="AP79" s="2"/>
+      <c r="BE79" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:59" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B80" s="2">
-        <v>12500000</v>
+        <v>30000000</v>
       </c>
       <c r="C80" s="2">
-        <v>2500</v>
+        <v>6250</v>
       </c>
       <c r="E80" s="2"/>
-      <c r="H80" s="2"/>
-      <c r="I80" s="2">
-        <v>1.1000000000000001</v>
-      </c>
+      <c r="G80" s="2"/>
       <c r="T80" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AD80" s="2"/>
-      <c r="AE80" s="2"/>
-      <c r="AF80" s="2"/>
-      <c r="AI80" s="2">
-        <v>1</v>
-      </c>
-      <c r="AK80" s="2"/>
-      <c r="AL80" s="2">
-        <v>1</v>
-      </c>
-      <c r="AN80" s="2">
-        <v>1</v>
-      </c>
-      <c r="AO80" s="2">
-        <v>1</v>
-      </c>
-      <c r="AP80" s="2"/>
-      <c r="AZ80" s="2">
-        <v>1</v>
-      </c>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="U80" s="2">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="X80" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="BD80" s="2"/>
       <c r="BG80" s="2">
         <v>1</v>
       </c>
